--- a/Symphony/2021/April/All Details/30.04.2021/MC Bank Statement April-2021.xlsx
+++ b/Symphony/2021/April/All Details/30.04.2021/MC Bank Statement April-2021.xlsx
@@ -2893,6 +2893,9 @@
     <xf numFmtId="2" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3021,9 +3024,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3691,33 +3691,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="291"/>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
+      <c r="A1" s="292"/>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="292"/>
-      <c r="B2" s="289" t="s">
+      <c r="A2" s="293"/>
+      <c r="B2" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="289"/>
-      <c r="D2" s="289"/>
-      <c r="E2" s="289"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="292"/>
-      <c r="B3" s="290" t="s">
+      <c r="A3" s="293"/>
+      <c r="B3" s="291" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="292"/>
+      <c r="A4" s="293"/>
       <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
@@ -3735,7 +3735,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="292"/>
+      <c r="A5" s="293"/>
       <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
@@ -3753,7 +3753,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="292"/>
+      <c r="A6" s="293"/>
       <c r="B6" s="38"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -3765,7 +3765,7 @@
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="292"/>
+      <c r="A7" s="293"/>
       <c r="B7" s="38" t="s">
         <v>131</v>
       </c>
@@ -3784,7 +3784,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="292"/>
+      <c r="A8" s="293"/>
       <c r="B8" s="38" t="s">
         <v>132</v>
       </c>
@@ -3803,7 +3803,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="292"/>
+      <c r="A9" s="293"/>
       <c r="B9" s="38" t="s">
         <v>135</v>
       </c>
@@ -3822,7 +3822,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="292"/>
+      <c r="A10" s="293"/>
       <c r="B10" s="38" t="s">
         <v>136</v>
       </c>
@@ -3841,7 +3841,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="292"/>
+      <c r="A11" s="293"/>
       <c r="B11" s="38" t="s">
         <v>137</v>
       </c>
@@ -3860,7 +3860,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="292"/>
+      <c r="A12" s="293"/>
       <c r="B12" s="38" t="s">
         <v>138</v>
       </c>
@@ -3879,7 +3879,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="292"/>
+      <c r="A13" s="293"/>
       <c r="B13" s="38" t="s">
         <v>140</v>
       </c>
@@ -3898,7 +3898,7 @@
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="292"/>
+      <c r="A14" s="293"/>
       <c r="B14" s="38" t="s">
         <v>141</v>
       </c>
@@ -3917,7 +3917,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="292"/>
+      <c r="A15" s="293"/>
       <c r="B15" s="38" t="s">
         <v>142</v>
       </c>
@@ -3936,7 +3936,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="292"/>
+      <c r="A16" s="293"/>
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
@@ -3949,7 +3949,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="292"/>
+      <c r="A17" s="293"/>
       <c r="B17" s="38"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -3962,7 +3962,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="292"/>
+      <c r="A18" s="293"/>
       <c r="B18" s="38"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
@@ -3975,7 +3975,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="292"/>
+      <c r="A19" s="293"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
@@ -3988,7 +3988,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="292"/>
+      <c r="A20" s="293"/>
       <c r="B20" s="38"/>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
@@ -4001,7 +4001,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="292"/>
+      <c r="A21" s="293"/>
       <c r="B21" s="38"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
@@ -4014,7 +4014,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="292"/>
+      <c r="A22" s="293"/>
       <c r="B22" s="38"/>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
@@ -4027,7 +4027,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="292"/>
+      <c r="A23" s="293"/>
       <c r="B23" s="38"/>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
@@ -4040,7 +4040,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="292"/>
+      <c r="A24" s="293"/>
       <c r="B24" s="38"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
@@ -4053,7 +4053,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="292"/>
+      <c r="A25" s="293"/>
       <c r="B25" s="38"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
@@ -4066,7 +4066,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="292"/>
+      <c r="A26" s="293"/>
       <c r="B26" s="38"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
@@ -4079,7 +4079,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="292"/>
+      <c r="A27" s="293"/>
       <c r="B27" s="38"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
@@ -4092,7 +4092,7 @@
       <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="292"/>
+      <c r="A28" s="293"/>
       <c r="B28" s="38"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
@@ -4105,7 +4105,7 @@
       <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="292"/>
+      <c r="A29" s="293"/>
       <c r="B29" s="38"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -4118,7 +4118,7 @@
       <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="292"/>
+      <c r="A30" s="293"/>
       <c r="B30" s="38"/>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
@@ -4131,7 +4131,7 @@
       <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="292"/>
+      <c r="A31" s="293"/>
       <c r="B31" s="38"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
@@ -4144,7 +4144,7 @@
       <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="292"/>
+      <c r="A32" s="293"/>
       <c r="B32" s="38"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
@@ -4157,7 +4157,7 @@
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="292"/>
+      <c r="A33" s="293"/>
       <c r="B33" s="38"/>
       <c r="C33" s="37"/>
       <c r="D33" s="40"/>
@@ -4170,7 +4170,7 @@
       <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="292"/>
+      <c r="A34" s="293"/>
       <c r="B34" s="38"/>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
@@ -4183,7 +4183,7 @@
       <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="292"/>
+      <c r="A35" s="293"/>
       <c r="B35" s="38"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
@@ -4196,7 +4196,7 @@
       <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="292"/>
+      <c r="A36" s="293"/>
       <c r="B36" s="38"/>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
@@ -4209,7 +4209,7 @@
       <c r="H36" s="33"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="292"/>
+      <c r="A37" s="293"/>
       <c r="B37" s="38"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -4222,7 +4222,7 @@
       <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="292"/>
+      <c r="A38" s="293"/>
       <c r="B38" s="38"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -4235,7 +4235,7 @@
       <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="292"/>
+      <c r="A39" s="293"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -4248,7 +4248,7 @@
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="292"/>
+      <c r="A40" s="293"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
@@ -4261,7 +4261,7 @@
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="292"/>
+      <c r="A41" s="293"/>
       <c r="B41" s="38"/>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
@@ -4274,7 +4274,7 @@
       <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="292"/>
+      <c r="A42" s="293"/>
       <c r="B42" s="38"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -4287,7 +4287,7 @@
       <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="292"/>
+      <c r="A43" s="293"/>
       <c r="B43" s="38"/>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
@@ -4300,7 +4300,7 @@
       <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="292"/>
+      <c r="A44" s="293"/>
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
@@ -4313,7 +4313,7 @@
       <c r="H44" s="33"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="292"/>
+      <c r="A45" s="293"/>
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
@@ -4326,7 +4326,7 @@
       <c r="H45" s="33"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="292"/>
+      <c r="A46" s="293"/>
       <c r="B46" s="38"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
@@ -4339,7 +4339,7 @@
       <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="292"/>
+      <c r="A47" s="293"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
@@ -4352,7 +4352,7 @@
       <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="292"/>
+      <c r="A48" s="293"/>
       <c r="B48" s="38"/>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
@@ -4365,7 +4365,7 @@
       <c r="H48" s="33"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="292"/>
+      <c r="A49" s="293"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
@@ -4378,7 +4378,7 @@
       <c r="H49" s="33"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="292"/>
+      <c r="A50" s="293"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
@@ -4391,7 +4391,7 @@
       <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="292"/>
+      <c r="A51" s="293"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
@@ -4404,7 +4404,7 @@
       <c r="H51" s="33"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="292"/>
+      <c r="A52" s="293"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
@@ -4417,7 +4417,7 @@
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="292"/>
+      <c r="A53" s="293"/>
       <c r="B53" s="38"/>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
@@ -4430,7 +4430,7 @@
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="292"/>
+      <c r="A54" s="293"/>
       <c r="B54" s="38"/>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
@@ -4443,7 +4443,7 @@
       <c r="H54" s="33"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="292"/>
+      <c r="A55" s="293"/>
       <c r="B55" s="38"/>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
@@ -4455,7 +4455,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="292"/>
+      <c r="A56" s="293"/>
       <c r="B56" s="38"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
@@ -4467,7 +4467,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="292"/>
+      <c r="A57" s="293"/>
       <c r="B57" s="38"/>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
@@ -4479,7 +4479,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="292"/>
+      <c r="A58" s="293"/>
       <c r="B58" s="38"/>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
@@ -4491,7 +4491,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="292"/>
+      <c r="A59" s="293"/>
       <c r="B59" s="38"/>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
@@ -4503,7 +4503,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="292"/>
+      <c r="A60" s="293"/>
       <c r="B60" s="38"/>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
@@ -4515,7 +4515,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="292"/>
+      <c r="A61" s="293"/>
       <c r="B61" s="38"/>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
@@ -4527,7 +4527,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="292"/>
+      <c r="A62" s="293"/>
       <c r="B62" s="38"/>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
@@ -4539,7 +4539,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="292"/>
+      <c r="A63" s="293"/>
       <c r="B63" s="38"/>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
@@ -4551,7 +4551,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="292"/>
+      <c r="A64" s="293"/>
       <c r="B64" s="38"/>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
@@ -4563,7 +4563,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="292"/>
+      <c r="A65" s="293"/>
       <c r="B65" s="38"/>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
@@ -4575,7 +4575,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="292"/>
+      <c r="A66" s="293"/>
       <c r="B66" s="38"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
@@ -4587,7 +4587,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="292"/>
+      <c r="A67" s="293"/>
       <c r="B67" s="38"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
@@ -4599,7 +4599,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="292"/>
+      <c r="A68" s="293"/>
       <c r="B68" s="38"/>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
@@ -4611,7 +4611,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="292"/>
+      <c r="A69" s="293"/>
       <c r="B69" s="38"/>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
@@ -4623,7 +4623,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="292"/>
+      <c r="A70" s="293"/>
       <c r="B70" s="38"/>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
@@ -4635,7 +4635,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="292"/>
+      <c r="A71" s="293"/>
       <c r="B71" s="38"/>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
@@ -4647,7 +4647,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="292"/>
+      <c r="A72" s="293"/>
       <c r="B72" s="38"/>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
@@ -4659,7 +4659,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="292"/>
+      <c r="A73" s="293"/>
       <c r="B73" s="38"/>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
@@ -4671,7 +4671,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="292"/>
+      <c r="A74" s="293"/>
       <c r="B74" s="38"/>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
@@ -4683,7 +4683,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="292"/>
+      <c r="A75" s="293"/>
       <c r="B75" s="38"/>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
@@ -4695,7 +4695,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="292"/>
+      <c r="A76" s="293"/>
       <c r="B76" s="38"/>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
@@ -4707,7 +4707,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="292"/>
+      <c r="A77" s="293"/>
       <c r="B77" s="38"/>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
@@ -4719,7 +4719,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="292"/>
+      <c r="A78" s="293"/>
       <c r="B78" s="38"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
@@ -4731,7 +4731,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="292"/>
+      <c r="A79" s="293"/>
       <c r="B79" s="38"/>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
@@ -4743,7 +4743,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="292"/>
+      <c r="A80" s="293"/>
       <c r="B80" s="38"/>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
@@ -4755,7 +4755,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="292"/>
+      <c r="A81" s="293"/>
       <c r="B81" s="38"/>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
@@ -4767,7 +4767,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="292"/>
+      <c r="A82" s="293"/>
       <c r="B82" s="38"/>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
@@ -4779,7 +4779,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="292"/>
+      <c r="A83" s="293"/>
       <c r="B83" s="43"/>
       <c r="C83" s="39">
         <f>SUM(C5:C72)</f>
@@ -4836,33 +4836,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="291"/>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
+      <c r="A1" s="292"/>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="292"/>
-      <c r="B2" s="289" t="s">
+      <c r="A2" s="293"/>
+      <c r="B2" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="289"/>
-      <c r="D2" s="289"/>
-      <c r="E2" s="289"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="292"/>
-      <c r="B3" s="290" t="s">
+      <c r="A3" s="293"/>
+      <c r="B3" s="291" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="292"/>
+      <c r="A4" s="293"/>
       <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
@@ -4880,7 +4880,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="292"/>
+      <c r="A5" s="293"/>
       <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
@@ -4898,7 +4898,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="292"/>
+      <c r="A6" s="293"/>
       <c r="B6" s="38"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -4910,7 +4910,7 @@
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="292"/>
+      <c r="A7" s="293"/>
       <c r="B7" s="38" t="s">
         <v>172</v>
       </c>
@@ -4929,7 +4929,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="292"/>
+      <c r="A8" s="293"/>
       <c r="B8" s="38" t="s">
         <v>176</v>
       </c>
@@ -4948,7 +4948,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="292"/>
+      <c r="A9" s="293"/>
       <c r="B9" s="38" t="s">
         <v>136</v>
       </c>
@@ -4967,7 +4967,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="292"/>
+      <c r="A10" s="293"/>
       <c r="B10" s="38" t="s">
         <v>177</v>
       </c>
@@ -4986,7 +4986,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="292"/>
+      <c r="A11" s="293"/>
       <c r="B11" s="38" t="s">
         <v>178</v>
       </c>
@@ -5005,7 +5005,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="292"/>
+      <c r="A12" s="293"/>
       <c r="B12" s="38" t="s">
         <v>179</v>
       </c>
@@ -5024,7 +5024,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="292"/>
+      <c r="A13" s="293"/>
       <c r="B13" s="38" t="s">
         <v>180</v>
       </c>
@@ -5043,7 +5043,7 @@
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="292"/>
+      <c r="A14" s="293"/>
       <c r="B14" s="38" t="s">
         <v>142</v>
       </c>
@@ -5062,7 +5062,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="292"/>
+      <c r="A15" s="293"/>
       <c r="B15" s="38" t="s">
         <v>183</v>
       </c>
@@ -5081,7 +5081,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="292"/>
+      <c r="A16" s="293"/>
       <c r="B16" s="38" t="s">
         <v>184</v>
       </c>
@@ -5100,7 +5100,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="292"/>
+      <c r="A17" s="293"/>
       <c r="B17" s="38" t="s">
         <v>185</v>
       </c>
@@ -5119,7 +5119,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="292"/>
+      <c r="A18" s="293"/>
       <c r="B18" s="38" t="s">
         <v>188</v>
       </c>
@@ -5138,7 +5138,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="292"/>
+      <c r="A19" s="293"/>
       <c r="B19" s="38" t="s">
         <v>191</v>
       </c>
@@ -5157,7 +5157,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="292"/>
+      <c r="A20" s="293"/>
       <c r="B20" s="38" t="s">
         <v>190</v>
       </c>
@@ -5176,7 +5176,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="292"/>
+      <c r="A21" s="293"/>
       <c r="B21" s="38" t="s">
         <v>192</v>
       </c>
@@ -5195,7 +5195,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="292"/>
+      <c r="A22" s="293"/>
       <c r="B22" s="38" t="s">
         <v>193</v>
       </c>
@@ -5214,7 +5214,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="292"/>
+      <c r="A23" s="293"/>
       <c r="B23" s="38" t="s">
         <v>195</v>
       </c>
@@ -5233,7 +5233,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="292"/>
+      <c r="A24" s="293"/>
       <c r="B24" s="38" t="s">
         <v>196</v>
       </c>
@@ -5252,7 +5252,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="292"/>
+      <c r="A25" s="293"/>
       <c r="B25" s="38" t="s">
         <v>197</v>
       </c>
@@ -5271,7 +5271,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="292"/>
+      <c r="A26" s="293"/>
       <c r="B26" s="38" t="s">
         <v>198</v>
       </c>
@@ -5290,7 +5290,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="292"/>
+      <c r="A27" s="293"/>
       <c r="B27" s="38" t="s">
         <v>199</v>
       </c>
@@ -5309,7 +5309,7 @@
       <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="292"/>
+      <c r="A28" s="293"/>
       <c r="B28" s="38" t="s">
         <v>200</v>
       </c>
@@ -5328,7 +5328,7 @@
       <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="292"/>
+      <c r="A29" s="293"/>
       <c r="B29" s="38" t="s">
         <v>201</v>
       </c>
@@ -5347,7 +5347,7 @@
       <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="292"/>
+      <c r="A30" s="293"/>
       <c r="B30" s="38" t="s">
         <v>203</v>
       </c>
@@ -5366,7 +5366,7 @@
       <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="292"/>
+      <c r="A31" s="293"/>
       <c r="B31" s="38" t="s">
         <v>206</v>
       </c>
@@ -5385,7 +5385,7 @@
       <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="292"/>
+      <c r="A32" s="293"/>
       <c r="B32" s="38" t="s">
         <v>211</v>
       </c>
@@ -5404,7 +5404,7 @@
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="292"/>
+      <c r="A33" s="293"/>
       <c r="B33" s="38"/>
       <c r="C33" s="37"/>
       <c r="D33" s="40"/>
@@ -5417,7 +5417,7 @@
       <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="292"/>
+      <c r="A34" s="293"/>
       <c r="B34" s="38"/>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
@@ -5430,7 +5430,7 @@
       <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="292"/>
+      <c r="A35" s="293"/>
       <c r="B35" s="38"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
@@ -5443,7 +5443,7 @@
       <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="292"/>
+      <c r="A36" s="293"/>
       <c r="B36" s="38"/>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
@@ -5456,7 +5456,7 @@
       <c r="H36" s="33"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="292"/>
+      <c r="A37" s="293"/>
       <c r="B37" s="38"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -5469,7 +5469,7 @@
       <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="292"/>
+      <c r="A38" s="293"/>
       <c r="B38" s="38"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -5482,7 +5482,7 @@
       <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="292"/>
+      <c r="A39" s="293"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -5495,7 +5495,7 @@
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="292"/>
+      <c r="A40" s="293"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
@@ -5508,7 +5508,7 @@
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="292"/>
+      <c r="A41" s="293"/>
       <c r="B41" s="38"/>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
@@ -5521,7 +5521,7 @@
       <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="292"/>
+      <c r="A42" s="293"/>
       <c r="B42" s="38"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -5534,7 +5534,7 @@
       <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="292"/>
+      <c r="A43" s="293"/>
       <c r="B43" s="38"/>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
@@ -5547,7 +5547,7 @@
       <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="292"/>
+      <c r="A44" s="293"/>
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
@@ -5560,7 +5560,7 @@
       <c r="H44" s="33"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="292"/>
+      <c r="A45" s="293"/>
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
@@ -5573,7 +5573,7 @@
       <c r="H45" s="33"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="292"/>
+      <c r="A46" s="293"/>
       <c r="B46" s="38"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
@@ -5586,7 +5586,7 @@
       <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="292"/>
+      <c r="A47" s="293"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
@@ -5599,7 +5599,7 @@
       <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="292"/>
+      <c r="A48" s="293"/>
       <c r="B48" s="38"/>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
@@ -5612,7 +5612,7 @@
       <c r="H48" s="33"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="292"/>
+      <c r="A49" s="293"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
@@ -5625,7 +5625,7 @@
       <c r="H49" s="33"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="292"/>
+      <c r="A50" s="293"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
@@ -5638,7 +5638,7 @@
       <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="292"/>
+      <c r="A51" s="293"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
@@ -5651,7 +5651,7 @@
       <c r="H51" s="33"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="292"/>
+      <c r="A52" s="293"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
@@ -5664,7 +5664,7 @@
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="292"/>
+      <c r="A53" s="293"/>
       <c r="B53" s="38"/>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
@@ -5677,7 +5677,7 @@
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="292"/>
+      <c r="A54" s="293"/>
       <c r="B54" s="38"/>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
@@ -5690,7 +5690,7 @@
       <c r="H54" s="33"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="292"/>
+      <c r="A55" s="293"/>
       <c r="B55" s="38"/>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
@@ -5702,7 +5702,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="292"/>
+      <c r="A56" s="293"/>
       <c r="B56" s="38"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
@@ -5714,7 +5714,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="292"/>
+      <c r="A57" s="293"/>
       <c r="B57" s="38"/>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
@@ -5726,7 +5726,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="292"/>
+      <c r="A58" s="293"/>
       <c r="B58" s="38"/>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
@@ -5738,7 +5738,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="292"/>
+      <c r="A59" s="293"/>
       <c r="B59" s="38"/>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
@@ -5750,7 +5750,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="292"/>
+      <c r="A60" s="293"/>
       <c r="B60" s="38"/>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
@@ -5762,7 +5762,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="292"/>
+      <c r="A61" s="293"/>
       <c r="B61" s="38"/>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
@@ -5774,7 +5774,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="292"/>
+      <c r="A62" s="293"/>
       <c r="B62" s="38"/>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
@@ -5786,7 +5786,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="292"/>
+      <c r="A63" s="293"/>
       <c r="B63" s="38"/>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
@@ -5798,7 +5798,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="292"/>
+      <c r="A64" s="293"/>
       <c r="B64" s="38"/>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
@@ -5810,7 +5810,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="292"/>
+      <c r="A65" s="293"/>
       <c r="B65" s="38"/>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
@@ -5822,7 +5822,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="292"/>
+      <c r="A66" s="293"/>
       <c r="B66" s="38"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
@@ -5834,7 +5834,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="292"/>
+      <c r="A67" s="293"/>
       <c r="B67" s="38"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
@@ -5846,7 +5846,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="292"/>
+      <c r="A68" s="293"/>
       <c r="B68" s="38"/>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
@@ -5858,7 +5858,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="292"/>
+      <c r="A69" s="293"/>
       <c r="B69" s="38"/>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
@@ -5870,7 +5870,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="292"/>
+      <c r="A70" s="293"/>
       <c r="B70" s="38"/>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
@@ -5882,7 +5882,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="292"/>
+      <c r="A71" s="293"/>
       <c r="B71" s="38"/>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
@@ -5894,7 +5894,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="292"/>
+      <c r="A72" s="293"/>
       <c r="B72" s="38"/>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
@@ -5906,7 +5906,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="292"/>
+      <c r="A73" s="293"/>
       <c r="B73" s="38"/>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
@@ -5918,7 +5918,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="292"/>
+      <c r="A74" s="293"/>
       <c r="B74" s="38"/>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
@@ -5930,7 +5930,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="292"/>
+      <c r="A75" s="293"/>
       <c r="B75" s="38"/>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
@@ -5942,7 +5942,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="292"/>
+      <c r="A76" s="293"/>
       <c r="B76" s="38"/>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
@@ -5954,7 +5954,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="292"/>
+      <c r="A77" s="293"/>
       <c r="B77" s="38"/>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
@@ -5966,7 +5966,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="292"/>
+      <c r="A78" s="293"/>
       <c r="B78" s="38"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
@@ -5978,7 +5978,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="292"/>
+      <c r="A79" s="293"/>
       <c r="B79" s="38"/>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
@@ -5990,7 +5990,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="292"/>
+      <c r="A80" s="293"/>
       <c r="B80" s="38"/>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
@@ -6002,7 +6002,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="292"/>
+      <c r="A81" s="293"/>
       <c r="B81" s="38"/>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
@@ -6014,7 +6014,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="292"/>
+      <c r="A82" s="293"/>
       <c r="B82" s="38"/>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
@@ -6026,7 +6026,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="292"/>
+      <c r="A83" s="293"/>
       <c r="B83" s="43"/>
       <c r="C83" s="39">
         <f>SUM(C5:C72)</f>
@@ -6078,67 +6078,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="298" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
-      <c r="J1" s="297"/>
-      <c r="K1" s="297"/>
-      <c r="L1" s="297"/>
-      <c r="M1" s="297"/>
-      <c r="N1" s="297"/>
-      <c r="O1" s="297"/>
-      <c r="P1" s="297"/>
-      <c r="Q1" s="297"/>
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="298"/>
+      <c r="E1" s="298"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="298"/>
+      <c r="I1" s="298"/>
+      <c r="J1" s="298"/>
+      <c r="K1" s="298"/>
+      <c r="L1" s="298"/>
+      <c r="M1" s="298"/>
+      <c r="N1" s="298"/>
+      <c r="O1" s="298"/>
+      <c r="P1" s="298"/>
+      <c r="Q1" s="298"/>
     </row>
     <row r="2" spans="1:24" s="189" customFormat="1" ht="18">
-      <c r="A2" s="298" t="s">
+      <c r="A2" s="299" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="298"/>
-      <c r="C2" s="298"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298"/>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298"/>
-      <c r="K2" s="298"/>
-      <c r="L2" s="298"/>
-      <c r="M2" s="298"/>
-      <c r="N2" s="298"/>
-      <c r="O2" s="298"/>
-      <c r="P2" s="298"/>
-      <c r="Q2" s="298"/>
+      <c r="B2" s="299"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="299"/>
+      <c r="H2" s="299"/>
+      <c r="I2" s="299"/>
+      <c r="J2" s="299"/>
+      <c r="K2" s="299"/>
+      <c r="L2" s="299"/>
+      <c r="M2" s="299"/>
+      <c r="N2" s="299"/>
+      <c r="O2" s="299"/>
+      <c r="P2" s="299"/>
+      <c r="Q2" s="299"/>
     </row>
     <row r="3" spans="1:24" s="190" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="299" t="s">
+      <c r="A3" s="300" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="300"/>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
-      <c r="H3" s="300"/>
-      <c r="I3" s="300"/>
-      <c r="J3" s="300"/>
-      <c r="K3" s="300"/>
-      <c r="L3" s="300"/>
-      <c r="M3" s="300"/>
-      <c r="N3" s="300"/>
-      <c r="O3" s="300"/>
-      <c r="P3" s="300"/>
-      <c r="Q3" s="301"/>
+      <c r="B3" s="301"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="301"/>
+      <c r="E3" s="301"/>
+      <c r="F3" s="301"/>
+      <c r="G3" s="301"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="301"/>
+      <c r="J3" s="301"/>
+      <c r="K3" s="301"/>
+      <c r="L3" s="301"/>
+      <c r="M3" s="301"/>
+      <c r="N3" s="301"/>
+      <c r="O3" s="301"/>
+      <c r="P3" s="301"/>
+      <c r="Q3" s="302"/>
       <c r="S3" s="105"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6147,52 +6147,52 @@
       <c r="X3" s="28"/>
     </row>
     <row r="4" spans="1:24" s="192" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="302" t="s">
+      <c r="A4" s="303" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="304" t="s">
+      <c r="B4" s="305" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="293" t="s">
+      <c r="C4" s="294" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="293" t="s">
+      <c r="D4" s="294" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="293" t="s">
+      <c r="E4" s="294" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="293" t="s">
+      <c r="F4" s="294" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="293" t="s">
+      <c r="G4" s="294" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="293" t="s">
+      <c r="H4" s="294" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="293" t="s">
+      <c r="I4" s="294" t="s">
         <v>108</v>
       </c>
-      <c r="J4" s="293" t="s">
+      <c r="J4" s="294" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="293" t="s">
+      <c r="K4" s="294" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="293" t="s">
+      <c r="L4" s="294" t="s">
         <v>95</v>
       </c>
-      <c r="M4" s="293" t="s">
+      <c r="M4" s="294" t="s">
         <v>96</v>
       </c>
-      <c r="N4" s="293" t="s">
+      <c r="N4" s="294" t="s">
         <v>97</v>
       </c>
-      <c r="O4" s="295" t="s">
+      <c r="O4" s="296" t="s">
         <v>98</v>
       </c>
-      <c r="P4" s="306" t="s">
+      <c r="P4" s="307" t="s">
         <v>99</v>
       </c>
       <c r="Q4" s="191" t="s">
@@ -6205,22 +6205,22 @@
       <c r="W4" s="194"/>
     </row>
     <row r="5" spans="1:24" s="192" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="303"/>
-      <c r="B5" s="305"/>
-      <c r="C5" s="294"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="294"/>
-      <c r="H5" s="294"/>
-      <c r="I5" s="294"/>
-      <c r="J5" s="294"/>
-      <c r="K5" s="294"/>
-      <c r="L5" s="294"/>
-      <c r="M5" s="294"/>
-      <c r="N5" s="294"/>
-      <c r="O5" s="296"/>
-      <c r="P5" s="307"/>
+      <c r="A5" s="304"/>
+      <c r="B5" s="306"/>
+      <c r="C5" s="295"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="295"/>
+      <c r="F5" s="295"/>
+      <c r="G5" s="295"/>
+      <c r="H5" s="295"/>
+      <c r="I5" s="295"/>
+      <c r="J5" s="295"/>
+      <c r="K5" s="295"/>
+      <c r="L5" s="295"/>
+      <c r="M5" s="295"/>
+      <c r="N5" s="295"/>
+      <c r="O5" s="297"/>
+      <c r="P5" s="308"/>
       <c r="Q5" s="196" t="s">
         <v>100</v>
       </c>
@@ -9399,11 +9399,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9418,6 +9413,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9432,7 +9432,7 @@
   <dimension ref="A1:BI252"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E123" sqref="E122:E123"/>
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9458,14 +9458,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="314" t="s">
+      <c r="A1" s="315" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="314"/>
-      <c r="C1" s="314"/>
-      <c r="D1" s="314"/>
-      <c r="E1" s="314"/>
-      <c r="F1" s="314"/>
+      <c r="B1" s="315"/>
+      <c r="C1" s="315"/>
+      <c r="D1" s="315"/>
+      <c r="E1" s="315"/>
+      <c r="F1" s="315"/>
       <c r="L1" s="91"/>
       <c r="M1" s="246"/>
       <c r="N1" s="246"/>
@@ -9518,14 +9518,14 @@
       <c r="BI1" s="246"/>
     </row>
     <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="315" t="s">
+      <c r="A2" s="316" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="315"/>
-      <c r="C2" s="315"/>
-      <c r="D2" s="315"/>
-      <c r="E2" s="315"/>
-      <c r="F2" s="315"/>
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="316"/>
+      <c r="E2" s="316"/>
+      <c r="F2" s="316"/>
       <c r="L2" s="91"/>
       <c r="M2" s="246"/>
       <c r="N2" s="246"/>
@@ -9578,14 +9578,14 @@
       <c r="BI2" s="246"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="316" t="s">
+      <c r="A3" s="317" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316"/>
-      <c r="F3" s="316"/>
+      <c r="B3" s="317"/>
+      <c r="C3" s="317"/>
+      <c r="D3" s="317"/>
+      <c r="E3" s="317"/>
+      <c r="F3" s="317"/>
       <c r="K3" s="246"/>
       <c r="L3" s="91"/>
       <c r="M3" s="246"/>
@@ -11545,14 +11545,14 @@
         <v>340040</v>
       </c>
       <c r="C29" s="99">
-        <v>309721</v>
+        <v>299721</v>
       </c>
       <c r="D29" s="99">
         <v>12129</v>
       </c>
       <c r="E29" s="99">
         <f t="shared" si="0"/>
-        <v>321850</v>
+        <v>311850</v>
       </c>
       <c r="F29" s="108"/>
       <c r="G29" s="91"/>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="C33" s="99">
         <f>SUM(C5:C32)</f>
-        <v>7126904</v>
+        <v>7116904</v>
       </c>
       <c r="D33" s="99">
         <f>SUM(D5:D32)</f>
@@ -11833,11 +11833,11 @@
       </c>
       <c r="E33" s="99">
         <f>SUM(E5:E32)</f>
-        <v>7184653</v>
+        <v>7174653</v>
       </c>
       <c r="F33" s="107">
         <f>B33-E33</f>
-        <v>-40958</v>
+        <v>-30958</v>
       </c>
       <c r="G33" s="121"/>
       <c r="H33" s="259"/>
@@ -11959,12 +11959,12 @@
       <c r="BI34" s="246"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="317" t="s">
+      <c r="A35" s="318" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="318"/>
-      <c r="C35" s="318"/>
-      <c r="D35" s="319"/>
+      <c r="B35" s="319"/>
+      <c r="C35" s="319"/>
+      <c r="D35" s="320"/>
       <c r="E35" s="105"/>
       <c r="F35" s="107"/>
       <c r="G35" s="121"/>
@@ -12501,13 +12501,13 @@
       <c r="C43" s="268"/>
       <c r="D43" s="131"/>
       <c r="E43" s="105"/>
-      <c r="F43" s="320" t="s">
+      <c r="F43" s="321" t="s">
         <v>47</v>
       </c>
-      <c r="G43" s="320"/>
-      <c r="H43" s="320"/>
-      <c r="I43" s="320"/>
-      <c r="J43" s="320"/>
+      <c r="G43" s="321"/>
+      <c r="H43" s="321"/>
+      <c r="I43" s="321"/>
+      <c r="J43" s="321"/>
       <c r="K43" s="137"/>
       <c r="L43" s="96"/>
       <c r="M43" s="246"/>
@@ -13566,7 +13566,7 @@
         <v>215</v>
       </c>
       <c r="C59" s="142">
-        <v>570710</v>
+        <v>580710</v>
       </c>
       <c r="D59" s="143" t="s">
         <v>206</v>
@@ -13779,10 +13779,10 @@
         <v>203</v>
       </c>
       <c r="E62" s="113"/>
-      <c r="F62" s="308" t="s">
+      <c r="F62" s="309" t="s">
         <v>116</v>
       </c>
-      <c r="G62" s="308"/>
+      <c r="G62" s="309"/>
       <c r="H62" s="245"/>
       <c r="I62" s="245"/>
       <c r="J62" s="150" t="s">
@@ -13845,10 +13845,10 @@
       <c r="BI62" s="246"/>
     </row>
     <row r="63" spans="1:61">
-      <c r="A63" s="321" t="s">
+      <c r="A63" s="322" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="322"/>
+      <c r="B63" s="323"/>
       <c r="C63" s="142"/>
       <c r="D63" s="143"/>
       <c r="E63" s="104"/>
@@ -16003,7 +16003,7 @@
         <v>77</v>
       </c>
       <c r="B90" s="96"/>
-      <c r="C90" s="332">
+      <c r="C90" s="289">
         <v>29000</v>
       </c>
       <c r="D90" s="146" t="s">
@@ -18216,13 +18216,13 @@
       <c r="BI118" s="246"/>
     </row>
     <row r="119" spans="1:61">
-      <c r="A119" s="309" t="s">
+      <c r="A119" s="310" t="s">
         <v>82</v>
       </c>
-      <c r="B119" s="310"/>
+      <c r="B119" s="311"/>
       <c r="C119" s="165">
         <f>SUM(C37:C118)</f>
-        <v>2626396</v>
+        <v>2636396</v>
       </c>
       <c r="D119" s="166"/>
       <c r="F119" s="158"/>
@@ -18367,13 +18367,13 @@
       <c r="BI120" s="246"/>
     </row>
     <row r="121" spans="1:61">
-      <c r="A121" s="311" t="s">
+      <c r="A121" s="312" t="s">
         <v>83</v>
       </c>
-      <c r="B121" s="312"/>
+      <c r="B121" s="313"/>
       <c r="C121" s="170">
         <f>C119+L142</f>
-        <v>2626396</v>
+        <v>2636396</v>
       </c>
       <c r="D121" s="171"/>
       <c r="F121" s="153"/>
@@ -20305,8 +20305,8 @@
       <c r="N175" s="250"/>
     </row>
     <row r="176" spans="6:14">
-      <c r="F176" s="313"/>
-      <c r="G176" s="313"/>
+      <c r="F176" s="314"/>
+      <c r="G176" s="314"/>
       <c r="H176" s="246"/>
       <c r="I176" s="111"/>
       <c r="J176" s="91"/>
@@ -20983,24 +20983,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="323" t="s">
+      <c r="A1" s="324" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="324"/>
-      <c r="C1" s="324"/>
-      <c r="D1" s="324"/>
-      <c r="E1" s="325"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="326"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="23.25">
-      <c r="A2" s="326" t="s">
+      <c r="A2" s="327" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="328"/>
+      <c r="B2" s="328"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
+      <c r="E2" s="329"/>
       <c r="F2" s="5"/>
       <c r="G2" s="11"/>
       <c r="H2" s="8"/>
@@ -21481,13 +21481,13 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="1:29" ht="22.5">
-      <c r="A15" s="329" t="s">
+      <c r="A15" s="330" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="330"/>
-      <c r="C15" s="330"/>
-      <c r="D15" s="330"/>
-      <c r="E15" s="331"/>
+      <c r="B15" s="331"/>
+      <c r="C15" s="331"/>
+      <c r="D15" s="331"/>
+      <c r="E15" s="332"/>
       <c r="F15" s="5"/>
       <c r="G15" s="9"/>
       <c r="H15" s="27"/>

--- a/Symphony/2021/April/All Details/30.04.2021/MC Bank Statement April-2021.xlsx
+++ b/Symphony/2021/April/All Details/30.04.2021/MC Bank Statement April-2021.xlsx
@@ -1186,7 +1186,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1423,6 +1423,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2071,7 +2077,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="333">
+  <cellXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2908,45 +2914,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3024,6 +3030,18 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -6067,7 +6085,7 @@
       <pane xSplit="10" ySplit="18" topLeftCell="K25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" activeCell="Q37" sqref="Q37"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6078,67 +6096,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="298" t="s">
+      <c r="A1" s="296" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="298"/>
-      <c r="C1" s="298"/>
-      <c r="D1" s="298"/>
-      <c r="E1" s="298"/>
-      <c r="F1" s="298"/>
-      <c r="G1" s="298"/>
-      <c r="H1" s="298"/>
-      <c r="I1" s="298"/>
-      <c r="J1" s="298"/>
-      <c r="K1" s="298"/>
-      <c r="L1" s="298"/>
-      <c r="M1" s="298"/>
-      <c r="N1" s="298"/>
-      <c r="O1" s="298"/>
-      <c r="P1" s="298"/>
-      <c r="Q1" s="298"/>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
+      <c r="N1" s="296"/>
+      <c r="O1" s="296"/>
+      <c r="P1" s="296"/>
+      <c r="Q1" s="296"/>
     </row>
     <row r="2" spans="1:24" s="189" customFormat="1" ht="18">
-      <c r="A2" s="299" t="s">
+      <c r="A2" s="297" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="299"/>
-      <c r="C2" s="299"/>
-      <c r="D2" s="299"/>
-      <c r="E2" s="299"/>
-      <c r="F2" s="299"/>
-      <c r="G2" s="299"/>
-      <c r="H2" s="299"/>
-      <c r="I2" s="299"/>
-      <c r="J2" s="299"/>
-      <c r="K2" s="299"/>
-      <c r="L2" s="299"/>
-      <c r="M2" s="299"/>
-      <c r="N2" s="299"/>
-      <c r="O2" s="299"/>
-      <c r="P2" s="299"/>
-      <c r="Q2" s="299"/>
+      <c r="B2" s="297"/>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="297"/>
+      <c r="H2" s="297"/>
+      <c r="I2" s="297"/>
+      <c r="J2" s="297"/>
+      <c r="K2" s="297"/>
+      <c r="L2" s="297"/>
+      <c r="M2" s="297"/>
+      <c r="N2" s="297"/>
+      <c r="O2" s="297"/>
+      <c r="P2" s="297"/>
+      <c r="Q2" s="297"/>
     </row>
     <row r="3" spans="1:24" s="190" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="300" t="s">
+      <c r="A3" s="298" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="301"/>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="301"/>
-      <c r="G3" s="301"/>
-      <c r="H3" s="301"/>
-      <c r="I3" s="301"/>
-      <c r="J3" s="301"/>
-      <c r="K3" s="301"/>
-      <c r="L3" s="301"/>
-      <c r="M3" s="301"/>
-      <c r="N3" s="301"/>
-      <c r="O3" s="301"/>
-      <c r="P3" s="301"/>
-      <c r="Q3" s="302"/>
+      <c r="B3" s="299"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="299"/>
+      <c r="I3" s="299"/>
+      <c r="J3" s="299"/>
+      <c r="K3" s="299"/>
+      <c r="L3" s="299"/>
+      <c r="M3" s="299"/>
+      <c r="N3" s="299"/>
+      <c r="O3" s="299"/>
+      <c r="P3" s="299"/>
+      <c r="Q3" s="300"/>
       <c r="S3" s="105"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6147,49 +6165,49 @@
       <c r="X3" s="28"/>
     </row>
     <row r="4" spans="1:24" s="192" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="303" t="s">
+      <c r="A4" s="301" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="305" t="s">
+      <c r="B4" s="303" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="294" t="s">
+      <c r="C4" s="305" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="294" t="s">
+      <c r="D4" s="305" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="294" t="s">
+      <c r="E4" s="305" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="294" t="s">
+      <c r="F4" s="305" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="294" t="s">
+      <c r="G4" s="305" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="294" t="s">
+      <c r="H4" s="305" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="294" t="s">
+      <c r="I4" s="305" t="s">
         <v>108</v>
       </c>
-      <c r="J4" s="294" t="s">
+      <c r="J4" s="305" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="294" t="s">
+      <c r="K4" s="305" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="294" t="s">
+      <c r="L4" s="305" t="s">
         <v>95</v>
       </c>
-      <c r="M4" s="294" t="s">
+      <c r="M4" s="305" t="s">
         <v>96</v>
       </c>
-      <c r="N4" s="294" t="s">
+      <c r="N4" s="305" t="s">
         <v>97</v>
       </c>
-      <c r="O4" s="296" t="s">
+      <c r="O4" s="294" t="s">
         <v>98</v>
       </c>
       <c r="P4" s="307" t="s">
@@ -6205,21 +6223,21 @@
       <c r="W4" s="194"/>
     </row>
     <row r="5" spans="1:24" s="192" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="304"/>
-      <c r="B5" s="306"/>
-      <c r="C5" s="295"/>
-      <c r="D5" s="295"/>
-      <c r="E5" s="295"/>
-      <c r="F5" s="295"/>
-      <c r="G5" s="295"/>
-      <c r="H5" s="295"/>
-      <c r="I5" s="295"/>
-      <c r="J5" s="295"/>
-      <c r="K5" s="295"/>
-      <c r="L5" s="295"/>
-      <c r="M5" s="295"/>
-      <c r="N5" s="295"/>
-      <c r="O5" s="297"/>
+      <c r="A5" s="302"/>
+      <c r="B5" s="304"/>
+      <c r="C5" s="306"/>
+      <c r="D5" s="306"/>
+      <c r="E5" s="306"/>
+      <c r="F5" s="306"/>
+      <c r="G5" s="306"/>
+      <c r="H5" s="306"/>
+      <c r="I5" s="306"/>
+      <c r="J5" s="306"/>
+      <c r="K5" s="306"/>
+      <c r="L5" s="306"/>
+      <c r="M5" s="306"/>
+      <c r="N5" s="306"/>
+      <c r="O5" s="295"/>
       <c r="P5" s="308"/>
       <c r="Q5" s="196" t="s">
         <v>100</v>
@@ -9399,6 +9417,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9415,9 +9436,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9431,8 +9449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -14639,14 +14657,14 @@
       <c r="BI72" s="246"/>
     </row>
     <row r="73" spans="1:61">
-      <c r="A73" s="145" t="s">
+      <c r="A73" s="333" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="96"/>
-      <c r="C73" s="142">
+      <c r="B73" s="334"/>
+      <c r="C73" s="335">
         <v>25372</v>
       </c>
-      <c r="D73" s="149" t="s">
+      <c r="D73" s="336" t="s">
         <v>206</v>
       </c>
       <c r="E73" s="105"/>
@@ -20965,8 +20983,8 @@
   </sheetPr>
   <dimension ref="A1:AC222"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>

--- a/Symphony/2021/April/All Details/30.04.2021/MC Bank Statement April-2021.xlsx
+++ b/Symphony/2021/April/All Details/30.04.2021/MC Bank Statement April-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -491,9 +491,6 @@
     <t>House Rent</t>
   </si>
   <si>
-    <t>Etc</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -846,6 +843,9 @@
   </si>
   <si>
     <t>Date: 30.04.2021</t>
+  </si>
+  <si>
+    <t>1 % Less</t>
   </si>
 </sst>
 </file>
@@ -2902,6 +2902,18 @@
     <xf numFmtId="2" fontId="39" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2914,6 +2926,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2947,12 +2965,6 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3030,18 +3042,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3709,33 +3709,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="292"/>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
+      <c r="A1" s="296"/>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="293"/>
-      <c r="B2" s="290" t="s">
+      <c r="A2" s="297"/>
+      <c r="B2" s="294" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="293"/>
-      <c r="B3" s="291" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="291"/>
-      <c r="D3" s="291"/>
-      <c r="E3" s="291"/>
+      <c r="A3" s="297"/>
+      <c r="B3" s="295" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="295"/>
+      <c r="D3" s="295"/>
+      <c r="E3" s="295"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="293"/>
+      <c r="A4" s="297"/>
       <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
@@ -3753,7 +3753,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="293"/>
+      <c r="A5" s="297"/>
       <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
@@ -3771,7 +3771,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="293"/>
+      <c r="A6" s="297"/>
       <c r="B6" s="38"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -3783,9 +3783,9 @@
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="293"/>
+      <c r="A7" s="297"/>
       <c r="B7" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="37">
         <v>245000</v>
@@ -3802,9 +3802,9 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="293"/>
+      <c r="A8" s="297"/>
       <c r="B8" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="37">
         <v>0</v>
@@ -3821,9 +3821,9 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="293"/>
+      <c r="A9" s="297"/>
       <c r="B9" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="37">
         <v>0</v>
@@ -3840,9 +3840,9 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="293"/>
+      <c r="A10" s="297"/>
       <c r="B10" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="40">
         <v>400000</v>
@@ -3859,9 +3859,9 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="293"/>
+      <c r="A11" s="297"/>
       <c r="B11" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="37">
         <v>0</v>
@@ -3878,9 +3878,9 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="293"/>
+      <c r="A12" s="297"/>
       <c r="B12" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="37">
         <v>250000</v>
@@ -3897,9 +3897,9 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="293"/>
+      <c r="A13" s="297"/>
       <c r="B13" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="37">
         <v>450000</v>
@@ -3916,9 +3916,9 @@
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="293"/>
+      <c r="A14" s="297"/>
       <c r="B14" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="37">
         <v>300000</v>
@@ -3935,9 +3935,9 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="293"/>
+      <c r="A15" s="297"/>
       <c r="B15" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="37">
         <v>370000</v>
@@ -3954,7 +3954,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="293"/>
+      <c r="A16" s="297"/>
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
@@ -3967,7 +3967,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="293"/>
+      <c r="A17" s="297"/>
       <c r="B17" s="38"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -3980,7 +3980,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="293"/>
+      <c r="A18" s="297"/>
       <c r="B18" s="38"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
@@ -3993,7 +3993,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="293"/>
+      <c r="A19" s="297"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
@@ -4006,7 +4006,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="293"/>
+      <c r="A20" s="297"/>
       <c r="B20" s="38"/>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
@@ -4019,7 +4019,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="293"/>
+      <c r="A21" s="297"/>
       <c r="B21" s="38"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
@@ -4032,7 +4032,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="293"/>
+      <c r="A22" s="297"/>
       <c r="B22" s="38"/>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
@@ -4045,7 +4045,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="293"/>
+      <c r="A23" s="297"/>
       <c r="B23" s="38"/>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
@@ -4058,7 +4058,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="293"/>
+      <c r="A24" s="297"/>
       <c r="B24" s="38"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
@@ -4071,7 +4071,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="293"/>
+      <c r="A25" s="297"/>
       <c r="B25" s="38"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
@@ -4084,7 +4084,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="293"/>
+      <c r="A26" s="297"/>
       <c r="B26" s="38"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
@@ -4097,7 +4097,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="293"/>
+      <c r="A27" s="297"/>
       <c r="B27" s="38"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
@@ -4110,7 +4110,7 @@
       <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="293"/>
+      <c r="A28" s="297"/>
       <c r="B28" s="38"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
@@ -4123,7 +4123,7 @@
       <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="293"/>
+      <c r="A29" s="297"/>
       <c r="B29" s="38"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -4136,7 +4136,7 @@
       <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="293"/>
+      <c r="A30" s="297"/>
       <c r="B30" s="38"/>
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
@@ -4149,7 +4149,7 @@
       <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="293"/>
+      <c r="A31" s="297"/>
       <c r="B31" s="38"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
@@ -4162,7 +4162,7 @@
       <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="293"/>
+      <c r="A32" s="297"/>
       <c r="B32" s="38"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
@@ -4175,7 +4175,7 @@
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="293"/>
+      <c r="A33" s="297"/>
       <c r="B33" s="38"/>
       <c r="C33" s="37"/>
       <c r="D33" s="40"/>
@@ -4188,7 +4188,7 @@
       <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="293"/>
+      <c r="A34" s="297"/>
       <c r="B34" s="38"/>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
@@ -4201,7 +4201,7 @@
       <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="293"/>
+      <c r="A35" s="297"/>
       <c r="B35" s="38"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
@@ -4214,7 +4214,7 @@
       <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="293"/>
+      <c r="A36" s="297"/>
       <c r="B36" s="38"/>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
@@ -4227,7 +4227,7 @@
       <c r="H36" s="33"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="293"/>
+      <c r="A37" s="297"/>
       <c r="B37" s="38"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -4240,7 +4240,7 @@
       <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="293"/>
+      <c r="A38" s="297"/>
       <c r="B38" s="38"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -4253,7 +4253,7 @@
       <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="293"/>
+      <c r="A39" s="297"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -4266,7 +4266,7 @@
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="293"/>
+      <c r="A40" s="297"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
@@ -4279,7 +4279,7 @@
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="293"/>
+      <c r="A41" s="297"/>
       <c r="B41" s="38"/>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
@@ -4292,7 +4292,7 @@
       <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="293"/>
+      <c r="A42" s="297"/>
       <c r="B42" s="38"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -4305,7 +4305,7 @@
       <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="293"/>
+      <c r="A43" s="297"/>
       <c r="B43" s="38"/>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
@@ -4318,7 +4318,7 @@
       <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="293"/>
+      <c r="A44" s="297"/>
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
@@ -4331,7 +4331,7 @@
       <c r="H44" s="33"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="293"/>
+      <c r="A45" s="297"/>
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
@@ -4344,7 +4344,7 @@
       <c r="H45" s="33"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="293"/>
+      <c r="A46" s="297"/>
       <c r="B46" s="38"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
@@ -4357,7 +4357,7 @@
       <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="293"/>
+      <c r="A47" s="297"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
@@ -4370,7 +4370,7 @@
       <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="293"/>
+      <c r="A48" s="297"/>
       <c r="B48" s="38"/>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
@@ -4383,7 +4383,7 @@
       <c r="H48" s="33"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="293"/>
+      <c r="A49" s="297"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
@@ -4396,7 +4396,7 @@
       <c r="H49" s="33"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="293"/>
+      <c r="A50" s="297"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
@@ -4409,7 +4409,7 @@
       <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="293"/>
+      <c r="A51" s="297"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
@@ -4422,7 +4422,7 @@
       <c r="H51" s="33"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="293"/>
+      <c r="A52" s="297"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
@@ -4435,7 +4435,7 @@
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="293"/>
+      <c r="A53" s="297"/>
       <c r="B53" s="38"/>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
@@ -4448,7 +4448,7 @@
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="293"/>
+      <c r="A54" s="297"/>
       <c r="B54" s="38"/>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
@@ -4461,7 +4461,7 @@
       <c r="H54" s="33"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="293"/>
+      <c r="A55" s="297"/>
       <c r="B55" s="38"/>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
@@ -4473,7 +4473,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="293"/>
+      <c r="A56" s="297"/>
       <c r="B56" s="38"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
@@ -4485,7 +4485,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="293"/>
+      <c r="A57" s="297"/>
       <c r="B57" s="38"/>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
@@ -4497,7 +4497,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="293"/>
+      <c r="A58" s="297"/>
       <c r="B58" s="38"/>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
@@ -4509,7 +4509,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="293"/>
+      <c r="A59" s="297"/>
       <c r="B59" s="38"/>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
@@ -4521,7 +4521,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="293"/>
+      <c r="A60" s="297"/>
       <c r="B60" s="38"/>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
@@ -4533,7 +4533,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="293"/>
+      <c r="A61" s="297"/>
       <c r="B61" s="38"/>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
@@ -4545,7 +4545,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="293"/>
+      <c r="A62" s="297"/>
       <c r="B62" s="38"/>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
@@ -4557,7 +4557,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="293"/>
+      <c r="A63" s="297"/>
       <c r="B63" s="38"/>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
@@ -4569,7 +4569,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="293"/>
+      <c r="A64" s="297"/>
       <c r="B64" s="38"/>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
@@ -4581,7 +4581,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="293"/>
+      <c r="A65" s="297"/>
       <c r="B65" s="38"/>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
@@ -4593,7 +4593,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="293"/>
+      <c r="A66" s="297"/>
       <c r="B66" s="38"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
@@ -4605,7 +4605,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="293"/>
+      <c r="A67" s="297"/>
       <c r="B67" s="38"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
@@ -4617,7 +4617,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="293"/>
+      <c r="A68" s="297"/>
       <c r="B68" s="38"/>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
@@ -4629,7 +4629,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="293"/>
+      <c r="A69" s="297"/>
       <c r="B69" s="38"/>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
@@ -4641,7 +4641,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="293"/>
+      <c r="A70" s="297"/>
       <c r="B70" s="38"/>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
@@ -4653,7 +4653,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="293"/>
+      <c r="A71" s="297"/>
       <c r="B71" s="38"/>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
@@ -4665,7 +4665,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="293"/>
+      <c r="A72" s="297"/>
       <c r="B72" s="38"/>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
@@ -4677,7 +4677,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="293"/>
+      <c r="A73" s="297"/>
       <c r="B73" s="38"/>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
@@ -4689,7 +4689,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="293"/>
+      <c r="A74" s="297"/>
       <c r="B74" s="38"/>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
@@ -4701,7 +4701,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="293"/>
+      <c r="A75" s="297"/>
       <c r="B75" s="38"/>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
@@ -4713,7 +4713,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="293"/>
+      <c r="A76" s="297"/>
       <c r="B76" s="38"/>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
@@ -4725,7 +4725,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="293"/>
+      <c r="A77" s="297"/>
       <c r="B77" s="38"/>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
@@ -4737,7 +4737,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="293"/>
+      <c r="A78" s="297"/>
       <c r="B78" s="38"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
@@ -4749,7 +4749,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="293"/>
+      <c r="A79" s="297"/>
       <c r="B79" s="38"/>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
@@ -4761,7 +4761,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="293"/>
+      <c r="A80" s="297"/>
       <c r="B80" s="38"/>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
@@ -4773,7 +4773,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="293"/>
+      <c r="A81" s="297"/>
       <c r="B81" s="38"/>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
@@ -4785,7 +4785,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="293"/>
+      <c r="A82" s="297"/>
       <c r="B82" s="38"/>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
@@ -4797,7 +4797,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="293"/>
+      <c r="A83" s="297"/>
       <c r="B83" s="43"/>
       <c r="C83" s="39">
         <f>SUM(C5:C72)</f>
@@ -4854,33 +4854,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="292"/>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
+      <c r="A1" s="296"/>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="293"/>
-      <c r="B2" s="290" t="s">
+      <c r="A2" s="297"/>
+      <c r="B2" s="294" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="293"/>
-      <c r="B3" s="291" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="291"/>
-      <c r="D3" s="291"/>
-      <c r="E3" s="291"/>
+      <c r="A3" s="297"/>
+      <c r="B3" s="295" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="295"/>
+      <c r="D3" s="295"/>
+      <c r="E3" s="295"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="293"/>
+      <c r="A4" s="297"/>
       <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
@@ -4898,7 +4898,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="293"/>
+      <c r="A5" s="297"/>
       <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
@@ -4916,7 +4916,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="293"/>
+      <c r="A6" s="297"/>
       <c r="B6" s="38"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -4928,9 +4928,9 @@
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="293"/>
+      <c r="A7" s="297"/>
       <c r="B7" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" s="37">
         <v>100000</v>
@@ -4947,9 +4947,9 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="293"/>
+      <c r="A8" s="297"/>
       <c r="B8" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="37">
         <v>0</v>
@@ -4966,9 +4966,9 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="293"/>
+      <c r="A9" s="297"/>
       <c r="B9" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="37">
         <v>700000</v>
@@ -4985,9 +4985,9 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="293"/>
+      <c r="A10" s="297"/>
       <c r="B10" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="40">
         <v>220000</v>
@@ -5004,9 +5004,9 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="293"/>
+      <c r="A11" s="297"/>
       <c r="B11" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" s="37">
         <v>0</v>
@@ -5023,9 +5023,9 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="293"/>
+      <c r="A12" s="297"/>
       <c r="B12" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="37">
         <v>100000</v>
@@ -5042,9 +5042,9 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="293"/>
+      <c r="A13" s="297"/>
       <c r="B13" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" s="37">
         <v>100000</v>
@@ -5061,9 +5061,9 @@
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="293"/>
+      <c r="A14" s="297"/>
       <c r="B14" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C14" s="37">
         <v>0</v>
@@ -5080,9 +5080,9 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="293"/>
+      <c r="A15" s="297"/>
       <c r="B15" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" s="37">
         <v>500000</v>
@@ -5099,9 +5099,9 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="293"/>
+      <c r="A16" s="297"/>
       <c r="B16" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" s="37">
         <v>550000</v>
@@ -5118,9 +5118,9 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="293"/>
+      <c r="A17" s="297"/>
       <c r="B17" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="37">
         <v>680000</v>
@@ -5137,9 +5137,9 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="293"/>
+      <c r="A18" s="297"/>
       <c r="B18" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C18" s="37">
         <v>60000</v>
@@ -5156,9 +5156,9 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="293"/>
+      <c r="A19" s="297"/>
       <c r="B19" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" s="37">
         <v>0</v>
@@ -5175,9 +5175,9 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="293"/>
+      <c r="A20" s="297"/>
       <c r="B20" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" s="37">
         <v>0</v>
@@ -5194,9 +5194,9 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="293"/>
+      <c r="A21" s="297"/>
       <c r="B21" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" s="37">
         <v>0</v>
@@ -5213,9 +5213,9 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="293"/>
+      <c r="A22" s="297"/>
       <c r="B22" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="37">
         <v>250000</v>
@@ -5232,9 +5232,9 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="293"/>
+      <c r="A23" s="297"/>
       <c r="B23" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C23" s="37">
         <v>160000</v>
@@ -5251,9 +5251,9 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="293"/>
+      <c r="A24" s="297"/>
       <c r="B24" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C24" s="37">
         <v>205000</v>
@@ -5270,9 +5270,9 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="293"/>
+      <c r="A25" s="297"/>
       <c r="B25" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C25" s="37">
         <v>380000</v>
@@ -5289,9 +5289,9 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="293"/>
+      <c r="A26" s="297"/>
       <c r="B26" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C26" s="37">
         <v>0</v>
@@ -5308,9 +5308,9 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="293"/>
+      <c r="A27" s="297"/>
       <c r="B27" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C27" s="37">
         <v>500000</v>
@@ -5327,9 +5327,9 @@
       <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="293"/>
+      <c r="A28" s="297"/>
       <c r="B28" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C28" s="37">
         <v>300000</v>
@@ -5346,9 +5346,9 @@
       <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="293"/>
+      <c r="A29" s="297"/>
       <c r="B29" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C29" s="37">
         <v>800000</v>
@@ -5365,9 +5365,9 @@
       <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="293"/>
+      <c r="A30" s="297"/>
       <c r="B30" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C30" s="37">
         <v>300000</v>
@@ -5384,9 +5384,9 @@
       <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="293"/>
+      <c r="A31" s="297"/>
       <c r="B31" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C31" s="37">
         <v>1250000</v>
@@ -5403,9 +5403,9 @@
       <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="293"/>
+      <c r="A32" s="297"/>
       <c r="B32" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C32" s="37">
         <v>0</v>
@@ -5422,7 +5422,7 @@
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="293"/>
+      <c r="A33" s="297"/>
       <c r="B33" s="38"/>
       <c r="C33" s="37"/>
       <c r="D33" s="40"/>
@@ -5435,7 +5435,7 @@
       <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="293"/>
+      <c r="A34" s="297"/>
       <c r="B34" s="38"/>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
@@ -5448,7 +5448,7 @@
       <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="293"/>
+      <c r="A35" s="297"/>
       <c r="B35" s="38"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
@@ -5461,7 +5461,7 @@
       <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="293"/>
+      <c r="A36" s="297"/>
       <c r="B36" s="38"/>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
@@ -5474,7 +5474,7 @@
       <c r="H36" s="33"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="293"/>
+      <c r="A37" s="297"/>
       <c r="B37" s="38"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -5487,7 +5487,7 @@
       <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="293"/>
+      <c r="A38" s="297"/>
       <c r="B38" s="38"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -5500,7 +5500,7 @@
       <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="293"/>
+      <c r="A39" s="297"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -5513,7 +5513,7 @@
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="293"/>
+      <c r="A40" s="297"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
@@ -5526,7 +5526,7 @@
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="293"/>
+      <c r="A41" s="297"/>
       <c r="B41" s="38"/>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
@@ -5539,7 +5539,7 @@
       <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="293"/>
+      <c r="A42" s="297"/>
       <c r="B42" s="38"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -5552,7 +5552,7 @@
       <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="293"/>
+      <c r="A43" s="297"/>
       <c r="B43" s="38"/>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
@@ -5565,7 +5565,7 @@
       <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="293"/>
+      <c r="A44" s="297"/>
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
@@ -5578,7 +5578,7 @@
       <c r="H44" s="33"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="293"/>
+      <c r="A45" s="297"/>
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
@@ -5591,7 +5591,7 @@
       <c r="H45" s="33"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="293"/>
+      <c r="A46" s="297"/>
       <c r="B46" s="38"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
@@ -5604,7 +5604,7 @@
       <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="293"/>
+      <c r="A47" s="297"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
@@ -5617,7 +5617,7 @@
       <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="293"/>
+      <c r="A48" s="297"/>
       <c r="B48" s="38"/>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
@@ -5630,7 +5630,7 @@
       <c r="H48" s="33"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="293"/>
+      <c r="A49" s="297"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
@@ -5643,7 +5643,7 @@
       <c r="H49" s="33"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="293"/>
+      <c r="A50" s="297"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
@@ -5656,7 +5656,7 @@
       <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="293"/>
+      <c r="A51" s="297"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
@@ -5669,7 +5669,7 @@
       <c r="H51" s="33"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="293"/>
+      <c r="A52" s="297"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
@@ -5682,7 +5682,7 @@
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="293"/>
+      <c r="A53" s="297"/>
       <c r="B53" s="38"/>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
@@ -5695,7 +5695,7 @@
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="293"/>
+      <c r="A54" s="297"/>
       <c r="B54" s="38"/>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
@@ -5708,7 +5708,7 @@
       <c r="H54" s="33"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="293"/>
+      <c r="A55" s="297"/>
       <c r="B55" s="38"/>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
@@ -5720,7 +5720,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="293"/>
+      <c r="A56" s="297"/>
       <c r="B56" s="38"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
@@ -5732,7 +5732,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="293"/>
+      <c r="A57" s="297"/>
       <c r="B57" s="38"/>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
@@ -5744,7 +5744,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="293"/>
+      <c r="A58" s="297"/>
       <c r="B58" s="38"/>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
@@ -5756,7 +5756,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="293"/>
+      <c r="A59" s="297"/>
       <c r="B59" s="38"/>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
@@ -5768,7 +5768,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="293"/>
+      <c r="A60" s="297"/>
       <c r="B60" s="38"/>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
@@ -5780,7 +5780,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="293"/>
+      <c r="A61" s="297"/>
       <c r="B61" s="38"/>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
@@ -5792,7 +5792,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="293"/>
+      <c r="A62" s="297"/>
       <c r="B62" s="38"/>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
@@ -5804,7 +5804,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="293"/>
+      <c r="A63" s="297"/>
       <c r="B63" s="38"/>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
@@ -5816,7 +5816,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="293"/>
+      <c r="A64" s="297"/>
       <c r="B64" s="38"/>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
@@ -5828,7 +5828,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="293"/>
+      <c r="A65" s="297"/>
       <c r="B65" s="38"/>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
@@ -5840,7 +5840,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="293"/>
+      <c r="A66" s="297"/>
       <c r="B66" s="38"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
@@ -5852,7 +5852,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="293"/>
+      <c r="A67" s="297"/>
       <c r="B67" s="38"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
@@ -5864,7 +5864,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="293"/>
+      <c r="A68" s="297"/>
       <c r="B68" s="38"/>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
@@ -5876,7 +5876,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="293"/>
+      <c r="A69" s="297"/>
       <c r="B69" s="38"/>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
@@ -5888,7 +5888,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="293"/>
+      <c r="A70" s="297"/>
       <c r="B70" s="38"/>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
@@ -5900,7 +5900,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="293"/>
+      <c r="A71" s="297"/>
       <c r="B71" s="38"/>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
@@ -5912,7 +5912,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="293"/>
+      <c r="A72" s="297"/>
       <c r="B72" s="38"/>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
@@ -5924,7 +5924,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="293"/>
+      <c r="A73" s="297"/>
       <c r="B73" s="38"/>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
@@ -5936,7 +5936,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="293"/>
+      <c r="A74" s="297"/>
       <c r="B74" s="38"/>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
@@ -5948,7 +5948,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="293"/>
+      <c r="A75" s="297"/>
       <c r="B75" s="38"/>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
@@ -5960,7 +5960,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="293"/>
+      <c r="A76" s="297"/>
       <c r="B76" s="38"/>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
@@ -5972,7 +5972,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="293"/>
+      <c r="A77" s="297"/>
       <c r="B77" s="38"/>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
@@ -5984,7 +5984,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="293"/>
+      <c r="A78" s="297"/>
       <c r="B78" s="38"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
@@ -5996,7 +5996,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="293"/>
+      <c r="A79" s="297"/>
       <c r="B79" s="38"/>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
@@ -6008,7 +6008,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="293"/>
+      <c r="A80" s="297"/>
       <c r="B80" s="38"/>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
@@ -6020,7 +6020,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="293"/>
+      <c r="A81" s="297"/>
       <c r="B81" s="38"/>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
@@ -6032,7 +6032,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="293"/>
+      <c r="A82" s="297"/>
       <c r="B82" s="38"/>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
@@ -6044,7 +6044,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="293"/>
+      <c r="A83" s="297"/>
       <c r="B83" s="43"/>
       <c r="C83" s="39">
         <f>SUM(C5:C72)</f>
@@ -6081,11 +6081,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="18" topLeftCell="K25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="18" topLeftCell="K32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6096,67 +6096,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="296" t="s">
+      <c r="A1" s="302" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
-      <c r="J1" s="296"/>
-      <c r="K1" s="296"/>
-      <c r="L1" s="296"/>
-      <c r="M1" s="296"/>
-      <c r="N1" s="296"/>
-      <c r="O1" s="296"/>
-      <c r="P1" s="296"/>
-      <c r="Q1" s="296"/>
+      <c r="B1" s="302"/>
+      <c r="C1" s="302"/>
+      <c r="D1" s="302"/>
+      <c r="E1" s="302"/>
+      <c r="F1" s="302"/>
+      <c r="G1" s="302"/>
+      <c r="H1" s="302"/>
+      <c r="I1" s="302"/>
+      <c r="J1" s="302"/>
+      <c r="K1" s="302"/>
+      <c r="L1" s="302"/>
+      <c r="M1" s="302"/>
+      <c r="N1" s="302"/>
+      <c r="O1" s="302"/>
+      <c r="P1" s="302"/>
+      <c r="Q1" s="302"/>
     </row>
     <row r="2" spans="1:24" s="189" customFormat="1" ht="18">
-      <c r="A2" s="297" t="s">
+      <c r="A2" s="303" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="297"/>
-      <c r="C2" s="297"/>
-      <c r="D2" s="297"/>
-      <c r="E2" s="297"/>
-      <c r="F2" s="297"/>
-      <c r="G2" s="297"/>
-      <c r="H2" s="297"/>
-      <c r="I2" s="297"/>
-      <c r="J2" s="297"/>
-      <c r="K2" s="297"/>
-      <c r="L2" s="297"/>
-      <c r="M2" s="297"/>
-      <c r="N2" s="297"/>
-      <c r="O2" s="297"/>
-      <c r="P2" s="297"/>
-      <c r="Q2" s="297"/>
+      <c r="B2" s="303"/>
+      <c r="C2" s="303"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="303"/>
+      <c r="F2" s="303"/>
+      <c r="G2" s="303"/>
+      <c r="H2" s="303"/>
+      <c r="I2" s="303"/>
+      <c r="J2" s="303"/>
+      <c r="K2" s="303"/>
+      <c r="L2" s="303"/>
+      <c r="M2" s="303"/>
+      <c r="N2" s="303"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="303"/>
+      <c r="Q2" s="303"/>
     </row>
     <row r="3" spans="1:24" s="190" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="298" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
-      <c r="H3" s="299"/>
-      <c r="I3" s="299"/>
-      <c r="J3" s="299"/>
-      <c r="K3" s="299"/>
-      <c r="L3" s="299"/>
-      <c r="M3" s="299"/>
-      <c r="N3" s="299"/>
-      <c r="O3" s="299"/>
-      <c r="P3" s="299"/>
-      <c r="Q3" s="300"/>
+      <c r="A3" s="304" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="305"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="305"/>
+      <c r="E3" s="305"/>
+      <c r="F3" s="305"/>
+      <c r="G3" s="305"/>
+      <c r="H3" s="305"/>
+      <c r="I3" s="305"/>
+      <c r="J3" s="305"/>
+      <c r="K3" s="305"/>
+      <c r="L3" s="305"/>
+      <c r="M3" s="305"/>
+      <c r="N3" s="305"/>
+      <c r="O3" s="305"/>
+      <c r="P3" s="305"/>
+      <c r="Q3" s="306"/>
       <c r="S3" s="105"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6165,53 +6165,53 @@
       <c r="X3" s="28"/>
     </row>
     <row r="4" spans="1:24" s="192" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="301" t="s">
+      <c r="A4" s="307" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="303" t="s">
+      <c r="B4" s="309" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="305" t="s">
+      <c r="C4" s="298" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="305" t="s">
+      <c r="D4" s="298" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="305" t="s">
+      <c r="E4" s="298" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="305" t="s">
+      <c r="F4" s="298" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="305" t="s">
+      <c r="G4" s="298" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="305" t="s">
+      <c r="H4" s="298" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="305" t="s">
-        <v>108</v>
-      </c>
-      <c r="J4" s="305" t="s">
+      <c r="I4" s="298" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="298" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="305" t="s">
+      <c r="K4" s="298" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="305" t="s">
+      <c r="L4" s="298" t="s">
         <v>95</v>
       </c>
-      <c r="M4" s="305" t="s">
+      <c r="M4" s="298" t="s">
         <v>96</v>
       </c>
-      <c r="N4" s="305" t="s">
+      <c r="N4" s="298" t="s">
         <v>97</v>
       </c>
-      <c r="O4" s="294" t="s">
+      <c r="O4" s="300" t="s">
         <v>98</v>
       </c>
-      <c r="P4" s="307" t="s">
-        <v>99</v>
+      <c r="P4" s="311" t="s">
+        <v>217</v>
       </c>
       <c r="Q4" s="191" t="s">
         <v>4</v>
@@ -6223,24 +6223,24 @@
       <c r="W4" s="194"/>
     </row>
     <row r="5" spans="1:24" s="192" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="302"/>
-      <c r="B5" s="304"/>
-      <c r="C5" s="306"/>
-      <c r="D5" s="306"/>
-      <c r="E5" s="306"/>
-      <c r="F5" s="306"/>
-      <c r="G5" s="306"/>
-      <c r="H5" s="306"/>
-      <c r="I5" s="306"/>
-      <c r="J5" s="306"/>
-      <c r="K5" s="306"/>
-      <c r="L5" s="306"/>
-      <c r="M5" s="306"/>
-      <c r="N5" s="306"/>
-      <c r="O5" s="295"/>
-      <c r="P5" s="308"/>
+      <c r="A5" s="308"/>
+      <c r="B5" s="310"/>
+      <c r="C5" s="299"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="299"/>
+      <c r="K5" s="299"/>
+      <c r="L5" s="299"/>
+      <c r="M5" s="299"/>
+      <c r="N5" s="299"/>
+      <c r="O5" s="301"/>
+      <c r="P5" s="312"/>
       <c r="Q5" s="196" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S5" s="197"/>
       <c r="T5" s="198"/>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="6" spans="1:24" s="21" customFormat="1">
       <c r="A6" s="200" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" s="201">
         <v>500</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="7" spans="1:24" s="21" customFormat="1">
       <c r="A7" s="200" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" s="201">
         <v>1500</v>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="8" spans="1:24" s="21" customFormat="1">
       <c r="A8" s="200" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="208">
         <v>200</v>
@@ -6372,14 +6372,14 @@
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V8" s="46"/>
       <c r="W8" s="5"/>
     </row>
     <row r="9" spans="1:24" s="21" customFormat="1">
       <c r="A9" s="200" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" s="208"/>
       <c r="C9" s="201"/>
@@ -6411,7 +6411,7 @@
     </row>
     <row r="10" spans="1:24" s="21" customFormat="1">
       <c r="A10" s="200" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" s="208">
         <v>400</v>
@@ -6451,7 +6451,7 @@
     </row>
     <row r="11" spans="1:24" s="21" customFormat="1">
       <c r="A11" s="200" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="208">
         <v>500</v>
@@ -6491,7 +6491,7 @@
     </row>
     <row r="12" spans="1:24" s="21" customFormat="1">
       <c r="A12" s="200" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12" s="208">
         <v>800</v>
@@ -6531,7 +6531,7 @@
     </row>
     <row r="13" spans="1:24" s="21" customFormat="1">
       <c r="A13" s="200" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B13" s="208">
         <v>500</v>
@@ -6571,7 +6571,7 @@
     </row>
     <row r="14" spans="1:24" s="21" customFormat="1">
       <c r="A14" s="200" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B14" s="208">
         <v>800</v>
@@ -6613,7 +6613,7 @@
     </row>
     <row r="15" spans="1:24" s="21" customFormat="1">
       <c r="A15" s="200" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B15" s="208">
         <v>500</v>
@@ -6653,7 +6653,7 @@
     </row>
     <row r="16" spans="1:24" s="21" customFormat="1">
       <c r="A16" s="200" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" s="208">
         <v>800</v>
@@ -6691,7 +6691,7 @@
     </row>
     <row r="17" spans="1:23" s="21" customFormat="1">
       <c r="A17" s="200" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" s="208"/>
       <c r="C17" s="201"/>
@@ -6723,7 +6723,7 @@
     </row>
     <row r="18" spans="1:23" s="21" customFormat="1">
       <c r="A18" s="200" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18" s="208">
         <v>150</v>
@@ -6755,7 +6755,7 @@
     </row>
     <row r="19" spans="1:23" s="21" customFormat="1">
       <c r="A19" s="200" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" s="208">
         <v>500</v>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="20" spans="1:23" s="21" customFormat="1">
       <c r="A20" s="200" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B20" s="208">
         <v>800</v>
@@ -6831,7 +6831,7 @@
     </row>
     <row r="21" spans="1:23" s="21" customFormat="1">
       <c r="A21" s="200" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" s="208">
         <v>500</v>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="22" spans="1:23" s="21" customFormat="1">
       <c r="A22" s="200" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" s="208">
         <v>1000</v>
@@ -6907,7 +6907,7 @@
     </row>
     <row r="23" spans="1:23" s="216" customFormat="1">
       <c r="A23" s="200" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B23" s="208">
         <v>200</v>
@@ -6941,7 +6941,7 @@
     </row>
     <row r="24" spans="1:23" s="21" customFormat="1">
       <c r="A24" s="200" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24" s="208">
         <v>1000</v>
@@ -6980,7 +6980,7 @@
     </row>
     <row r="25" spans="1:23" s="216" customFormat="1">
       <c r="A25" s="200" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" s="208">
         <v>1200</v>
@@ -7016,7 +7016,7 @@
     </row>
     <row r="26" spans="1:23" s="21" customFormat="1">
       <c r="A26" s="200" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" s="208"/>
       <c r="C26" s="201"/>
@@ -7052,7 +7052,7 @@
     </row>
     <row r="27" spans="1:23" s="21" customFormat="1">
       <c r="A27" s="200" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B27" s="208">
         <v>1000</v>
@@ -7090,7 +7090,7 @@
     </row>
     <row r="28" spans="1:23" s="21" customFormat="1">
       <c r="A28" s="200" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B28" s="208">
         <v>1200</v>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="29" spans="1:23" s="21" customFormat="1">
       <c r="A29" s="200" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B29" s="208"/>
       <c r="C29" s="201">
@@ -7170,7 +7170,7 @@
     </row>
     <row r="30" spans="1:23" s="21" customFormat="1">
       <c r="A30" s="200" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B30" s="208">
         <v>500</v>
@@ -7200,10 +7200,12 @@
       <c r="O30" s="209">
         <v>10000</v>
       </c>
-      <c r="P30" s="211"/>
+      <c r="P30" s="211">
+        <v>565</v>
+      </c>
       <c r="Q30" s="205">
         <f t="shared" si="0"/>
-        <v>12129</v>
+        <v>12694</v>
       </c>
       <c r="R30" s="206"/>
       <c r="S30" s="218"/>
@@ -7350,7 +7352,7 @@
     </row>
     <row r="37" spans="1:18" s="189" customFormat="1" ht="13.5" thickBot="1">
       <c r="A37" s="225" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B37" s="226">
         <f>SUM(B6:B36)</f>
@@ -7410,11 +7412,11 @@
       </c>
       <c r="P37" s="228">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="Q37" s="229">
         <f>SUM(Q6:Q36)</f>
-        <v>57789</v>
+        <v>58354</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -9417,6 +9419,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -9433,9 +9438,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9449,8 +9451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView topLeftCell="A63" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9476,14 +9478,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="315" t="s">
+      <c r="A1" s="319" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="315"/>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
       <c r="L1" s="91"/>
       <c r="M1" s="246"/>
       <c r="N1" s="246"/>
@@ -9536,14 +9538,14 @@
       <c r="BI1" s="246"/>
     </row>
     <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="316" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
+      <c r="A2" s="320" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="320"/>
+      <c r="C2" s="320"/>
+      <c r="D2" s="320"/>
+      <c r="E2" s="320"/>
+      <c r="F2" s="320"/>
       <c r="L2" s="91"/>
       <c r="M2" s="246"/>
       <c r="N2" s="246"/>
@@ -9596,14 +9598,14 @@
       <c r="BI2" s="246"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="317" t="s">
+      <c r="A3" s="321" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="317"/>
-      <c r="C3" s="317"/>
-      <c r="D3" s="317"/>
-      <c r="E3" s="317"/>
-      <c r="F3" s="317"/>
+      <c r="B3" s="321"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="321"/>
       <c r="K3" s="246"/>
       <c r="L3" s="91"/>
       <c r="M3" s="246"/>
@@ -9733,7 +9735,7 @@
     </row>
     <row r="5" spans="1:61">
       <c r="A5" s="93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="94">
         <v>736680</v>
@@ -9809,7 +9811,7 @@
     </row>
     <row r="6" spans="1:61">
       <c r="A6" s="98" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="99">
         <v>396280</v>
@@ -9885,7 +9887,7 @@
     </row>
     <row r="7" spans="1:61">
       <c r="A7" s="98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="99">
         <v>133330</v>
@@ -9961,7 +9963,7 @@
     </row>
     <row r="8" spans="1:61">
       <c r="A8" s="98" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="99">
         <v>96340</v>
@@ -10037,7 +10039,7 @@
     </row>
     <row r="9" spans="1:61">
       <c r="A9" s="98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="99">
         <v>103385</v>
@@ -10113,7 +10115,7 @@
     </row>
     <row r="10" spans="1:61">
       <c r="A10" s="98" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="99">
         <v>160670</v>
@@ -10189,7 +10191,7 @@
     </row>
     <row r="11" spans="1:61">
       <c r="A11" s="98" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11" s="99">
         <v>323230</v>
@@ -10265,7 +10267,7 @@
     </row>
     <row r="12" spans="1:61">
       <c r="A12" s="98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B12" s="99">
         <v>499655</v>
@@ -10341,7 +10343,7 @@
     </row>
     <row r="13" spans="1:61">
       <c r="A13" s="98" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B13" s="99">
         <v>548080</v>
@@ -10417,7 +10419,7 @@
     </row>
     <row r="14" spans="1:61">
       <c r="A14" s="98" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14" s="99">
         <v>335205</v>
@@ -10493,7 +10495,7 @@
     </row>
     <row r="15" spans="1:61">
       <c r="A15" s="98" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15" s="99">
         <v>0</v>
@@ -10569,7 +10571,7 @@
     </row>
     <row r="16" spans="1:61">
       <c r="A16" s="98" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" s="99">
         <v>23395</v>
@@ -10645,7 +10647,7 @@
     </row>
     <row r="17" spans="1:61">
       <c r="A17" s="98" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" s="99">
         <v>55860</v>
@@ -10721,7 +10723,7 @@
     </row>
     <row r="18" spans="1:61">
       <c r="A18" s="98" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" s="99">
         <v>123005</v>
@@ -10797,7 +10799,7 @@
     </row>
     <row r="19" spans="1:61">
       <c r="A19" s="98" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" s="99">
         <v>173205</v>
@@ -10873,7 +10875,7 @@
     </row>
     <row r="20" spans="1:61">
       <c r="A20" s="98" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" s="99">
         <v>212180</v>
@@ -10949,7 +10951,7 @@
     </row>
     <row r="21" spans="1:61">
       <c r="A21" s="98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B21" s="99">
         <v>405715</v>
@@ -11025,7 +11027,7 @@
     </row>
     <row r="22" spans="1:61">
       <c r="A22" s="98" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B22" s="99">
         <v>183480</v>
@@ -11101,7 +11103,7 @@
     </row>
     <row r="23" spans="1:61">
       <c r="A23" s="98" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="99">
         <v>371710</v>
@@ -11177,7 +11179,7 @@
     </row>
     <row r="24" spans="1:61">
       <c r="A24" s="98" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B24" s="99">
         <v>345345</v>
@@ -11253,7 +11255,7 @@
     </row>
     <row r="25" spans="1:61">
       <c r="A25" s="98" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" s="99">
         <v>407815</v>
@@ -11329,7 +11331,7 @@
     </row>
     <row r="26" spans="1:61">
       <c r="A26" s="98" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" s="99">
         <v>185175</v>
@@ -11405,7 +11407,7 @@
     </row>
     <row r="27" spans="1:61">
       <c r="A27" s="98" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B27" s="99">
         <v>596275</v>
@@ -11481,7 +11483,7 @@
     </row>
     <row r="28" spans="1:61">
       <c r="A28" s="98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B28" s="99">
         <v>387640</v>
@@ -11557,7 +11559,7 @@
     </row>
     <row r="29" spans="1:61">
       <c r="A29" s="98" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B29" s="99">
         <v>340040</v>
@@ -11977,12 +11979,12 @@
       <c r="BI34" s="246"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="318" t="s">
+      <c r="A35" s="322" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="319"/>
-      <c r="C35" s="319"/>
-      <c r="D35" s="320"/>
+      <c r="B35" s="323"/>
+      <c r="C35" s="323"/>
+      <c r="D35" s="324"/>
       <c r="E35" s="105"/>
       <c r="F35" s="107"/>
       <c r="G35" s="121"/>
@@ -12120,16 +12122,16 @@
     </row>
     <row r="37" spans="1:61">
       <c r="A37" s="158" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" s="268">
         <v>19600</v>
       </c>
       <c r="D37" s="92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E37" s="105"/>
       <c r="F37" s="100"/>
@@ -12194,13 +12196,13 @@
         <v>43</v>
       </c>
       <c r="B38" s="92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="268">
         <v>23335</v>
       </c>
       <c r="D38" s="92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E38" s="104"/>
       <c r="F38" s="107"/>
@@ -12394,7 +12396,7 @@
       <c r="E41" s="133"/>
       <c r="F41" s="100"/>
       <c r="G41" s="134" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H41" s="134"/>
       <c r="I41" s="262"/>
@@ -12519,13 +12521,13 @@
       <c r="C43" s="268"/>
       <c r="D43" s="131"/>
       <c r="E43" s="105"/>
-      <c r="F43" s="321" t="s">
+      <c r="F43" s="325" t="s">
         <v>47</v>
       </c>
-      <c r="G43" s="321"/>
-      <c r="H43" s="321"/>
-      <c r="I43" s="321"/>
-      <c r="J43" s="321"/>
+      <c r="G43" s="325"/>
+      <c r="H43" s="325"/>
+      <c r="I43" s="325"/>
+      <c r="J43" s="325"/>
       <c r="K43" s="137"/>
       <c r="L43" s="96"/>
       <c r="M43" s="246"/>
@@ -12711,7 +12713,7 @@
         <v>7160</v>
       </c>
       <c r="D46" s="267" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E46" s="104"/>
       <c r="F46" s="251"/>
@@ -12772,16 +12774,16 @@
     </row>
     <row r="47" spans="1:61">
       <c r="A47" s="273" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="273" t="s">
         <v>208</v>
-      </c>
-      <c r="B47" s="273" t="s">
-        <v>209</v>
       </c>
       <c r="C47" s="142">
         <v>6500</v>
       </c>
       <c r="D47" s="149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E47" s="104"/>
       <c r="F47" s="251"/>
@@ -12842,14 +12844,14 @@
     </row>
     <row r="48" spans="1:61">
       <c r="A48" s="145" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B48" s="96"/>
       <c r="C48" s="142">
         <v>8000</v>
       </c>
       <c r="D48" s="287" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E48" s="104"/>
       <c r="F48" s="247"/>
@@ -13167,7 +13169,7 @@
         <v>50000</v>
       </c>
       <c r="D53" s="143" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E53" s="104"/>
       <c r="F53" s="97"/>
@@ -13238,7 +13240,7 @@
         <v>305465</v>
       </c>
       <c r="D54" s="140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E54" s="104"/>
       <c r="F54" s="247"/>
@@ -13307,7 +13309,7 @@
         <v>265917</v>
       </c>
       <c r="D55" s="146" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E55" s="104"/>
       <c r="F55" s="96"/>
@@ -13376,7 +13378,7 @@
         <v>63290</v>
       </c>
       <c r="D56" s="143" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E56" s="104"/>
       <c r="F56" s="96"/>
@@ -13445,7 +13447,7 @@
         <v>54640</v>
       </c>
       <c r="D57" s="149" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E57" s="104"/>
       <c r="F57" s="96"/>
@@ -13514,7 +13516,7 @@
         <v>200000</v>
       </c>
       <c r="D58" s="146" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E58" s="104"/>
       <c r="F58" s="97"/>
@@ -13578,16 +13580,16 @@
     </row>
     <row r="59" spans="1:61">
       <c r="A59" s="141" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B59" s="96" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C59" s="142">
         <v>580710</v>
       </c>
       <c r="D59" s="143" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E59" s="104"/>
       <c r="F59" s="96"/>
@@ -13649,14 +13651,14 @@
     </row>
     <row r="60" spans="1:61">
       <c r="A60" s="145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B60" s="96"/>
       <c r="C60" s="142">
         <v>32590</v>
       </c>
       <c r="D60" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E60" s="104"/>
       <c r="F60" s="96"/>
@@ -13725,7 +13727,7 @@
         <v>186020</v>
       </c>
       <c r="D61" s="146" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E61" s="105"/>
       <c r="F61" s="96"/>
@@ -13787,20 +13789,20 @@
     </row>
     <row r="62" spans="1:61">
       <c r="A62" s="147" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B62" s="143"/>
       <c r="C62" s="142">
         <v>9210</v>
       </c>
       <c r="D62" s="149" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E62" s="113"/>
-      <c r="F62" s="309" t="s">
-        <v>116</v>
-      </c>
-      <c r="G62" s="309"/>
+      <c r="F62" s="313" t="s">
+        <v>115</v>
+      </c>
+      <c r="G62" s="313"/>
       <c r="H62" s="245"/>
       <c r="I62" s="245"/>
       <c r="J62" s="150" t="s">
@@ -13863,25 +13865,25 @@
       <c r="BI62" s="246"/>
     </row>
     <row r="63" spans="1:61">
-      <c r="A63" s="322" t="s">
+      <c r="A63" s="326" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="323"/>
+      <c r="B63" s="327"/>
       <c r="C63" s="142"/>
       <c r="D63" s="143"/>
       <c r="E63" s="104"/>
       <c r="F63" s="153"/>
       <c r="G63" s="154" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H63" s="154" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I63" s="97">
         <v>19600</v>
       </c>
       <c r="J63" s="97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K63" s="166">
         <v>19600</v>
@@ -13951,13 +13953,13 @@
         <v>43</v>
       </c>
       <c r="H64" s="160" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I64" s="97">
         <v>19625</v>
       </c>
       <c r="J64" s="96" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K64" s="166">
         <v>19625</v>
@@ -14018,26 +14020,26 @@
     </row>
     <row r="65" spans="1:61">
       <c r="A65" s="145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B65" s="143"/>
       <c r="C65" s="142">
         <v>10915</v>
       </c>
       <c r="D65" s="143" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E65" s="104"/>
       <c r="F65" s="153"/>
       <c r="G65" s="154" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H65" s="154"/>
       <c r="I65" s="97">
         <v>6535</v>
       </c>
       <c r="J65" s="96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K65" s="166">
         <v>6535</v>
@@ -14098,26 +14100,26 @@
     </row>
     <row r="66" spans="1:61">
       <c r="A66" s="145" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B66" s="96"/>
       <c r="C66" s="142">
         <v>38000</v>
       </c>
       <c r="D66" s="149" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E66" s="104"/>
       <c r="F66" s="158"/>
       <c r="G66" s="156" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H66" s="156"/>
       <c r="I66" s="157">
         <v>10915</v>
       </c>
       <c r="J66" s="159" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K66" s="166">
         <v>10915</v>
@@ -14178,26 +14180,26 @@
     </row>
     <row r="67" spans="1:61">
       <c r="A67" s="145" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B67" s="96"/>
       <c r="C67" s="142">
         <v>4500</v>
       </c>
       <c r="D67" s="146" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E67" s="104"/>
       <c r="F67" s="153"/>
       <c r="G67" s="154" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H67" s="154"/>
       <c r="I67" s="97">
         <v>44000</v>
       </c>
       <c r="J67" s="144" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K67" s="166">
         <v>44000</v>
@@ -14258,19 +14260,19 @@
     </row>
     <row r="68" spans="1:61">
       <c r="A68" s="141" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B68" s="96"/>
       <c r="C68" s="142">
         <v>5000</v>
       </c>
       <c r="D68" s="146" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E68" s="104"/>
       <c r="F68" s="153"/>
       <c r="G68" s="154" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H68" s="154"/>
       <c r="I68" s="97">
@@ -14338,26 +14340,26 @@
     </row>
     <row r="69" spans="1:61">
       <c r="A69" s="141" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B69" s="96"/>
       <c r="C69" s="142">
         <v>27585</v>
       </c>
       <c r="D69" s="149" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E69" s="246"/>
       <c r="F69" s="153"/>
       <c r="G69" s="154" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H69" s="154"/>
       <c r="I69" s="97">
         <v>5000</v>
       </c>
       <c r="J69" s="96" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K69" s="166">
         <v>5000</v>
@@ -14425,19 +14427,19 @@
         <v>50888</v>
       </c>
       <c r="D70" s="149" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E70" s="104"/>
       <c r="F70" s="158"/>
       <c r="G70" s="154" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H70" s="154"/>
       <c r="I70" s="97">
         <v>29585</v>
       </c>
       <c r="J70" s="144" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K70" s="166">
         <v>29585</v>
@@ -14505,7 +14507,7 @@
         <v>29000</v>
       </c>
       <c r="D71" s="143" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E71" s="105"/>
       <c r="F71" s="158"/>
@@ -14517,7 +14519,7 @@
         <v>50888</v>
       </c>
       <c r="J71" s="144" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K71" s="166">
         <v>50888</v>
@@ -14585,7 +14587,7 @@
         <v>42910</v>
       </c>
       <c r="D72" s="149" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E72" s="105"/>
       <c r="F72" s="158"/>
@@ -14597,7 +14599,7 @@
         <v>29848</v>
       </c>
       <c r="J72" s="144" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K72" s="166">
         <v>29848</v>
@@ -14657,15 +14659,15 @@
       <c r="BI72" s="246"/>
     </row>
     <row r="73" spans="1:61">
-      <c r="A73" s="333" t="s">
+      <c r="A73" s="290" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="334"/>
-      <c r="C73" s="335">
+      <c r="B73" s="291"/>
+      <c r="C73" s="292">
         <v>25372</v>
       </c>
-      <c r="D73" s="336" t="s">
-        <v>206</v>
+      <c r="D73" s="293" t="s">
+        <v>205</v>
       </c>
       <c r="E73" s="105"/>
       <c r="F73" s="158"/>
@@ -14677,7 +14679,7 @@
         <v>42910</v>
       </c>
       <c r="J73" s="97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K73" s="166">
         <v>42910</v>
@@ -14745,7 +14747,7 @@
         <v>11955</v>
       </c>
       <c r="D74" s="149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E74" s="105"/>
       <c r="F74" s="158"/>
@@ -14757,7 +14759,7 @@
         <v>25872</v>
       </c>
       <c r="J74" s="144" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K74" s="166">
         <v>25872</v>
@@ -14825,7 +14827,7 @@
         <v>22030</v>
       </c>
       <c r="D75" s="143" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E75" s="104"/>
       <c r="F75" s="158"/>
@@ -14837,7 +14839,7 @@
         <v>11025</v>
       </c>
       <c r="J75" s="159" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K75" s="166">
         <v>11025</v>
@@ -14905,7 +14907,7 @@
         <v>24686</v>
       </c>
       <c r="D76" s="146" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E76" s="104"/>
       <c r="F76" s="158"/>
@@ -14917,7 +14919,7 @@
         <v>22030</v>
       </c>
       <c r="J76" s="144" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K76" s="166">
         <v>22030</v>
@@ -14978,14 +14980,14 @@
     </row>
     <row r="77" spans="1:61">
       <c r="A77" s="145" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B77" s="96"/>
       <c r="C77" s="142">
         <v>9040</v>
       </c>
       <c r="D77" s="146" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E77" s="104"/>
       <c r="F77" s="153"/>
@@ -14997,7 +14999,7 @@
         <v>26916</v>
       </c>
       <c r="J77" s="97" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K77" s="166">
         <v>26916</v>
@@ -15058,26 +15060,26 @@
     </row>
     <row r="78" spans="1:61">
       <c r="A78" s="145" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B78" s="96"/>
       <c r="C78" s="142">
         <v>5790</v>
       </c>
       <c r="D78" s="146" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E78" s="104"/>
       <c r="F78" s="158"/>
       <c r="G78" s="154" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H78" s="154"/>
       <c r="I78" s="97">
         <v>32850</v>
       </c>
       <c r="J78" s="144" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K78" s="166">
         <v>32850</v>
@@ -15150,14 +15152,14 @@
       <c r="E79" s="104"/>
       <c r="F79" s="158"/>
       <c r="G79" s="154" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H79" s="154"/>
       <c r="I79" s="97">
         <v>11790</v>
       </c>
       <c r="J79" s="144" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K79" s="166">
         <v>11790</v>
@@ -15218,14 +15220,14 @@
     </row>
     <row r="80" spans="1:61">
       <c r="A80" s="145" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B80" s="96"/>
       <c r="C80" s="142">
         <v>7000</v>
       </c>
       <c r="D80" s="149" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E80" s="104"/>
       <c r="F80" s="158"/>
@@ -15310,14 +15312,14 @@
       <c r="E81" s="104"/>
       <c r="F81" s="161"/>
       <c r="G81" s="154" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H81" s="154"/>
       <c r="I81" s="97">
         <v>7000</v>
       </c>
       <c r="J81" s="144" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K81" s="166">
         <v>7000</v>
@@ -15378,14 +15380,14 @@
     </row>
     <row r="82" spans="1:61">
       <c r="A82" s="145" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B82" s="96"/>
       <c r="C82" s="142">
         <v>20000</v>
       </c>
       <c r="D82" s="146" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E82" s="105"/>
       <c r="F82" s="162"/>
@@ -15465,19 +15467,19 @@
         <v>18000</v>
       </c>
       <c r="D83" s="149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E83" s="105"/>
       <c r="F83" s="162"/>
       <c r="G83" s="154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H83" s="154"/>
       <c r="I83" s="97">
         <v>20000</v>
       </c>
       <c r="J83" s="97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K83" s="166">
         <v>20000</v>
@@ -15545,7 +15547,7 @@
         <v>5420</v>
       </c>
       <c r="D84" s="146" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E84" s="105"/>
       <c r="F84" s="161"/>
@@ -15557,7 +15559,7 @@
         <v>18000</v>
       </c>
       <c r="J84" s="144" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K84" s="166">
         <v>18000</v>
@@ -15625,7 +15627,7 @@
         <v>5000</v>
       </c>
       <c r="D85" s="146" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E85" s="105"/>
       <c r="F85" s="161"/>
@@ -15637,7 +15639,7 @@
         <v>7000</v>
       </c>
       <c r="J85" s="144" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K85" s="166">
         <v>7000</v>
@@ -15698,14 +15700,14 @@
     </row>
     <row r="86" spans="1:61">
       <c r="A86" s="145" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B86" s="96"/>
       <c r="C86" s="142">
         <v>15000</v>
       </c>
       <c r="D86" s="146" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E86" s="105"/>
       <c r="F86" s="158"/>
@@ -15717,7 +15719,7 @@
         <v>5000</v>
       </c>
       <c r="J86" s="144" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K86" s="166">
         <v>5000</v>
@@ -15778,26 +15780,26 @@
     </row>
     <row r="87" spans="1:61">
       <c r="A87" s="145" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B87" s="143"/>
       <c r="C87" s="142">
         <v>26190</v>
       </c>
       <c r="D87" s="143" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E87" s="104"/>
       <c r="F87" s="158"/>
       <c r="G87" s="172" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H87" s="172"/>
       <c r="I87" s="97">
         <v>21000</v>
       </c>
       <c r="J87" s="144" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K87" s="166">
         <v>21000</v>
@@ -15858,26 +15860,26 @@
     </row>
     <row r="88" spans="1:61">
       <c r="A88" s="141" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B88" s="96"/>
       <c r="C88" s="142">
         <v>12000</v>
       </c>
       <c r="D88" s="149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E88" s="104"/>
       <c r="F88" s="153"/>
       <c r="G88" s="154" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H88" s="154"/>
       <c r="I88" s="97">
         <v>26190</v>
       </c>
       <c r="J88" s="144" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K88" s="166">
         <v>26190</v>
@@ -15938,26 +15940,26 @@
     </row>
     <row r="89" spans="1:61">
       <c r="A89" s="145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B89" s="143"/>
       <c r="C89" s="142">
         <v>25650</v>
       </c>
       <c r="D89" s="143" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E89" s="104"/>
       <c r="F89" s="158"/>
       <c r="G89" s="154" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H89" s="154"/>
       <c r="I89" s="97">
         <v>12045</v>
       </c>
       <c r="J89" s="96" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K89" s="166">
         <v>12045</v>
@@ -16025,19 +16027,19 @@
         <v>29000</v>
       </c>
       <c r="D90" s="146" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E90" s="104"/>
       <c r="F90" s="158"/>
       <c r="G90" s="154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H90" s="154"/>
       <c r="I90" s="97">
         <v>25650</v>
       </c>
       <c r="J90" s="144" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K90" s="166">
         <v>25650</v>
@@ -16098,14 +16100,14 @@
     </row>
     <row r="91" spans="1:61">
       <c r="A91" s="145" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B91" s="96"/>
       <c r="C91" s="142">
         <v>10000</v>
       </c>
       <c r="D91" s="146" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E91" s="104"/>
       <c r="F91" s="158"/>
@@ -16117,7 +16119,7 @@
         <v>29000</v>
       </c>
       <c r="J91" s="144" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K91" s="166">
         <v>29000</v>
@@ -16178,25 +16180,25 @@
     </row>
     <row r="92" spans="1:61">
       <c r="A92" s="145" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B92" s="96"/>
       <c r="C92" s="142">
         <v>2000</v>
       </c>
       <c r="D92" s="143" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F92" s="158"/>
       <c r="G92" s="154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H92" s="154"/>
       <c r="I92" s="97">
         <v>17890</v>
       </c>
       <c r="J92" s="144" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K92" s="166">
         <v>17890</v>
@@ -16268,14 +16270,14 @@
       </c>
       <c r="F93" s="158"/>
       <c r="G93" s="156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H93" s="156"/>
       <c r="I93" s="157">
         <v>2000</v>
       </c>
       <c r="J93" s="159" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K93" s="166">
         <v>2000</v>
@@ -16343,7 +16345,7 @@
         <v>33650</v>
       </c>
       <c r="D94" s="143" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F94" s="153"/>
       <c r="G94" s="154" t="s">
@@ -16415,14 +16417,14 @@
     </row>
     <row r="95" spans="1:61">
       <c r="A95" s="145" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B95" s="143"/>
       <c r="C95" s="142">
         <v>7000</v>
       </c>
       <c r="D95" s="143" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F95" s="158"/>
       <c r="G95" s="154" t="s">
@@ -16433,7 +16435,7 @@
         <v>33650</v>
       </c>
       <c r="J95" s="163" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K95" s="166">
         <v>33650</v>
@@ -16494,18 +16496,18 @@
     </row>
     <row r="96" spans="1:61">
       <c r="A96" s="145" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B96" s="164"/>
       <c r="C96" s="142">
         <v>30270</v>
       </c>
       <c r="D96" s="143" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F96" s="162"/>
       <c r="G96" s="156" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H96" s="156">
         <v>173992171</v>
@@ -16514,7 +16516,7 @@
         <v>17500</v>
       </c>
       <c r="J96" s="159" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K96" s="166">
         <v>17500</v>
@@ -16804,7 +16806,7 @@
         <v>6870</v>
       </c>
       <c r="J100" s="144" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K100" s="166">
         <v>6870</v>
@@ -16877,7 +16879,7 @@
         <v>800</v>
       </c>
       <c r="J101" s="96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K101" s="166">
         <v>800</v>
@@ -16943,14 +16945,14 @@
       <c r="D102" s="143"/>
       <c r="F102" s="162"/>
       <c r="G102" s="156" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H102" s="156"/>
       <c r="I102" s="157">
         <v>5000</v>
       </c>
       <c r="J102" s="159" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K102" s="166">
         <v>5000</v>
@@ -17025,7 +17027,7 @@
         <v>2340</v>
       </c>
       <c r="J103" s="144" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K103" s="166">
         <v>2340</v>
@@ -17091,14 +17093,14 @@
       <c r="D104" s="143"/>
       <c r="F104" s="162"/>
       <c r="G104" s="154" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H104" s="154"/>
       <c r="I104" s="97">
         <v>17500</v>
       </c>
       <c r="J104" s="144" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K104" s="166">
         <v>17500</v>
@@ -17295,7 +17297,7 @@
       <c r="D107" s="143"/>
       <c r="F107" s="162"/>
       <c r="G107" s="154" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H107" s="154">
         <v>1758900692</v>
@@ -17304,7 +17306,7 @@
         <v>30000</v>
       </c>
       <c r="J107" s="144" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K107" s="166">
         <v>30000</v>
@@ -17362,7 +17364,7 @@
     </row>
     <row r="108" spans="1:61">
       <c r="A108" s="145" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B108" s="143">
         <v>173992171</v>
@@ -17371,7 +17373,7 @@
         <v>17500</v>
       </c>
       <c r="D108" s="143" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F108" s="162"/>
       <c r="G108" s="154" t="s">
@@ -17455,14 +17457,14 @@
       </c>
       <c r="F109" s="162"/>
       <c r="G109" s="154" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H109" s="154"/>
       <c r="I109" s="97">
         <v>11770</v>
       </c>
       <c r="J109" s="144" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K109" s="166">
         <v>11770</v>
@@ -17533,14 +17535,14 @@
       </c>
       <c r="F110" s="162"/>
       <c r="G110" s="156" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H110" s="156"/>
       <c r="I110" s="157">
         <v>15000</v>
       </c>
       <c r="J110" s="159" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K110" s="166">
         <v>15000</v>
@@ -17610,7 +17612,7 @@
         <v>6870</v>
       </c>
       <c r="D111" s="143" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F111" s="162"/>
       <c r="G111" s="154" t="s">
@@ -17621,7 +17623,7 @@
         <v>7160</v>
       </c>
       <c r="J111" s="144" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K111" s="166">
         <v>7160</v>
@@ -17689,7 +17691,7 @@
         <v>800</v>
       </c>
       <c r="D112" s="143" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F112" s="162"/>
       <c r="G112" s="156" t="s">
@@ -17700,7 +17702,7 @@
         <v>50000</v>
       </c>
       <c r="J112" s="157" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K112" s="166">
         <v>50000</v>
@@ -17761,14 +17763,14 @@
     </row>
     <row r="113" spans="1:61">
       <c r="A113" s="145" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B113" s="143"/>
       <c r="C113" s="142">
         <v>40000</v>
       </c>
       <c r="D113" s="143" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F113" s="162"/>
       <c r="G113" s="154" t="s">
@@ -17779,7 +17781,7 @@
         <v>210035</v>
       </c>
       <c r="J113" s="97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K113" s="166">
         <v>210035</v>
@@ -17849,7 +17851,7 @@
         <v>2340</v>
       </c>
       <c r="D114" s="143" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F114" s="162"/>
       <c r="G114" s="154" t="s">
@@ -17860,7 +17862,7 @@
         <v>265917</v>
       </c>
       <c r="J114" s="144" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K114" s="166">
         <v>265917</v>
@@ -17921,14 +17923,14 @@
     </row>
     <row r="115" spans="1:61">
       <c r="A115" s="145" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B115" s="143"/>
       <c r="C115" s="142">
         <v>17500</v>
       </c>
       <c r="D115" s="143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F115" s="162"/>
       <c r="G115" s="154" t="s">
@@ -17939,7 +17941,7 @@
         <v>63290</v>
       </c>
       <c r="J115" s="144" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K115" s="166">
         <v>63290</v>
@@ -18000,7 +18002,7 @@
     </row>
     <row r="116" spans="1:61">
       <c r="A116" s="145" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B116" s="143">
         <v>1758900692</v>
@@ -18009,7 +18011,7 @@
         <v>30000</v>
       </c>
       <c r="D116" s="143" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F116" s="162"/>
       <c r="G116" s="156" t="s">
@@ -18020,7 +18022,7 @@
         <v>55030</v>
       </c>
       <c r="J116" s="159" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K116" s="166">
         <v>55030</v>
@@ -18101,7 +18103,7 @@
         <v>336360</v>
       </c>
       <c r="J117" s="159" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K117" s="166">
         <v>336360</v>
@@ -18174,7 +18176,7 @@
         <v>477180</v>
       </c>
       <c r="J118" s="96" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K118" s="166">
         <v>477180</v>
@@ -18234,10 +18236,10 @@
       <c r="BI118" s="246"/>
     </row>
     <row r="119" spans="1:61">
-      <c r="A119" s="310" t="s">
+      <c r="A119" s="314" t="s">
         <v>82</v>
       </c>
-      <c r="B119" s="311"/>
+      <c r="B119" s="315"/>
       <c r="C119" s="165">
         <f>SUM(C37:C118)</f>
         <v>2636396</v>
@@ -18245,14 +18247,14 @@
       <c r="D119" s="166"/>
       <c r="F119" s="158"/>
       <c r="G119" s="154" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H119" s="154"/>
       <c r="I119" s="97">
         <v>38260</v>
       </c>
       <c r="J119" s="144" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K119" s="166">
         <v>38260</v>
@@ -18325,7 +18327,7 @@
         <v>186240</v>
       </c>
       <c r="J120" s="144" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K120" s="166">
         <v>186240</v>
@@ -18385,10 +18387,10 @@
       <c r="BI120" s="246"/>
     </row>
     <row r="121" spans="1:61">
-      <c r="A121" s="312" t="s">
+      <c r="A121" s="316" t="s">
         <v>83</v>
       </c>
-      <c r="B121" s="313"/>
+      <c r="B121" s="317"/>
       <c r="C121" s="170">
         <f>C119+L142</f>
         <v>2636396</v>
@@ -18461,14 +18463,14 @@
       <c r="D122" s="246"/>
       <c r="F122" s="158"/>
       <c r="G122" s="156" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H122" s="156"/>
       <c r="I122" s="157">
         <v>90000</v>
       </c>
       <c r="J122" s="159" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K122" s="166">
         <v>90000</v>
@@ -18536,14 +18538,14 @@
       </c>
       <c r="F123" s="158"/>
       <c r="G123" s="156" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H123" s="156"/>
       <c r="I123" s="157">
         <v>4000</v>
       </c>
       <c r="J123" s="159" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K123" s="166">
         <v>4000</v>
@@ -20323,8 +20325,8 @@
       <c r="N175" s="250"/>
     </row>
     <row r="176" spans="6:14">
-      <c r="F176" s="314"/>
-      <c r="G176" s="314"/>
+      <c r="F176" s="318"/>
+      <c r="G176" s="318"/>
       <c r="H176" s="246"/>
       <c r="I176" s="111"/>
       <c r="J176" s="91"/>
@@ -21001,24 +21003,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="324" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="326"/>
+      <c r="A1" s="328" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="329"/>
+      <c r="C1" s="329"/>
+      <c r="D1" s="329"/>
+      <c r="E1" s="330"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="23.25">
-      <c r="A2" s="327" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="328"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="329"/>
+      <c r="A2" s="331" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="332"/>
+      <c r="C2" s="332"/>
+      <c r="D2" s="332"/>
+      <c r="E2" s="333"/>
       <c r="F2" s="5"/>
       <c r="G2" s="11"/>
       <c r="H2" s="8"/>
@@ -21155,14 +21157,14 @@
     </row>
     <row r="6" spans="1:29" ht="21.75">
       <c r="A6" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="67">
         <v>30940</v>
       </c>
       <c r="C6" s="65"/>
       <c r="D6" s="282" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" s="238">
         <v>344772</v>
@@ -21273,7 +21275,7 @@
       </c>
       <c r="C9" s="66"/>
       <c r="D9" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E9" s="68">
         <v>10550</v>
@@ -21313,13 +21315,13 @@
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E10" s="69">
         <v>-48880</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G10" s="48"/>
       <c r="H10" s="27"/>
@@ -21349,7 +21351,7 @@
     </row>
     <row r="11" spans="1:29" ht="21.75">
       <c r="A11" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" s="70">
         <v>1000000</v>
@@ -21476,7 +21478,7 @@
         <v>14</v>
       </c>
       <c r="J14" s="237" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -21499,13 +21501,13 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="1:29" ht="22.5">
-      <c r="A15" s="330" t="s">
+      <c r="A15" s="334" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="331"/>
-      <c r="C15" s="331"/>
-      <c r="D15" s="331"/>
-      <c r="E15" s="332"/>
+      <c r="B15" s="335"/>
+      <c r="C15" s="335"/>
+      <c r="D15" s="335"/>
+      <c r="E15" s="336"/>
       <c r="F15" s="5"/>
       <c r="G15" s="9"/>
       <c r="H15" s="27"/>
@@ -21535,7 +21537,7 @@
     </row>
     <row r="16" spans="1:29" ht="21.75">
       <c r="A16" s="74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="85">
         <v>38000</v>
@@ -21574,7 +21576,7 @@
     </row>
     <row r="17" spans="1:29" ht="21.75">
       <c r="A17" s="75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" s="86">
         <v>45990</v>
@@ -21688,7 +21690,7 @@
     </row>
     <row r="20" spans="1:29" ht="21.75">
       <c r="A20" s="275" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="276">
         <v>27585</v>
@@ -21726,7 +21728,7 @@
     </row>
     <row r="21" spans="1:29" ht="21.75">
       <c r="A21" s="275" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="276">
         <v>29000</v>
@@ -21764,7 +21766,7 @@
     </row>
     <row r="22" spans="1:29" ht="21.75">
       <c r="A22" s="278" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B22" s="276">
         <v>32590</v>
